--- a/Code/Results/Cases/Case_5_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.634643547140001</v>
+        <v>5.062554487182695</v>
       </c>
       <c r="C2">
-        <v>0.7312406554670474</v>
+        <v>0.7794522374265114</v>
       </c>
       <c r="D2">
-        <v>0.1812770055150992</v>
+        <v>0.01511227129676485</v>
       </c>
       <c r="E2">
-        <v>0.1069095721363027</v>
+        <v>0.01671612379237447</v>
       </c>
       <c r="F2">
-        <v>6.553507488924822</v>
+        <v>3.301852094397645</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1726953578548738</v>
+        <v>0.05563675632314258</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2760397937167056</v>
+        <v>0.3210466485785446</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.498826836852615</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.109491504159166</v>
+        <v>4.456012385283771</v>
       </c>
       <c r="C3">
-        <v>0.6233635660337313</v>
+        <v>0.6710576215096751</v>
       </c>
       <c r="D3">
-        <v>0.1596129940247835</v>
+        <v>0.01280541352549136</v>
       </c>
       <c r="E3">
-        <v>0.09216040461895858</v>
+        <v>0.01667994008964435</v>
       </c>
       <c r="F3">
-        <v>5.731588882151499</v>
+        <v>3.071331026658754</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1499377155676065</v>
+        <v>0.05648722300136022</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2358616676212719</v>
+        <v>0.2886822728086145</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.542783323283501</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.796663271858279</v>
+        <v>4.092764960146383</v>
       </c>
       <c r="C4">
-        <v>0.5590839231967379</v>
+        <v>0.6058601095614335</v>
       </c>
       <c r="D4">
-        <v>0.1467533914779864</v>
+        <v>0.01146299882724477</v>
       </c>
       <c r="E4">
-        <v>0.08339956307910157</v>
+        <v>0.01666505588960715</v>
       </c>
       <c r="F4">
-        <v>5.243019153286809</v>
+        <v>2.937044781441983</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1364172691096961</v>
+        <v>0.05706559748530537</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2119592367243115</v>
+        <v>0.2693688971540666</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.571970217218706</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.671223392651314</v>
+        <v>3.946770637280736</v>
       </c>
       <c r="C5">
-        <v>0.5332967840471952</v>
+        <v>0.5795831755076506</v>
       </c>
       <c r="D5">
-        <v>0.1416054507386946</v>
+        <v>0.01093184368659195</v>
       </c>
       <c r="E5">
-        <v>0.07989253413730779</v>
+        <v>0.01666070026678379</v>
       </c>
       <c r="F5">
-        <v>5.047347301836311</v>
+        <v>2.883974611734118</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1310039900480859</v>
+        <v>0.05731495460866043</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2023811071187183</v>
+        <v>0.2616244353666275</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.584386134427433</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.650507279002682</v>
+        <v>3.92264358647617</v>
       </c>
       <c r="C6">
-        <v>0.5290371838684109</v>
+        <v>0.5752361595745015</v>
       </c>
       <c r="D6">
-        <v>0.1407557192543578</v>
+        <v>0.01084453141917763</v>
       </c>
       <c r="E6">
-        <v>0.07931370555096606</v>
+        <v>0.01666007669070901</v>
       </c>
       <c r="F6">
-        <v>5.015046225087389</v>
+        <v>2.87525744971154</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1301104730576768</v>
+        <v>0.05735717275387842</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2007996491297916</v>
+        <v>0.2603456780983464</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.586478480126658</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.794963749615135</v>
+        <v>4.09078814606687</v>
       </c>
       <c r="C7">
-        <v>0.558734603442673</v>
+        <v>0.6055046112194873</v>
       </c>
       <c r="D7">
-        <v>0.1466836132777161</v>
+        <v>0.01145577453090496</v>
       </c>
       <c r="E7">
-        <v>0.08335202433669409</v>
+        <v>0.01666499038990799</v>
       </c>
       <c r="F7">
-        <v>5.240367155547517</v>
+        <v>2.936322582447161</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1363438948476556</v>
+        <v>0.05706890565500977</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.211829443100406</v>
+        <v>0.2692639611034053</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.572135587162947</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.45133105817996</v>
+        <v>4.851341334540223</v>
       </c>
       <c r="C8">
-        <v>0.6935835136270612</v>
+        <v>0.7417645620674875</v>
       </c>
       <c r="D8">
-        <v>0.1737034103205417</v>
+        <v>0.01429977495111245</v>
       </c>
       <c r="E8">
-        <v>0.1017556048737482</v>
+        <v>0.01670203936631609</v>
       </c>
       <c r="F8">
-        <v>6.266369763582475</v>
+        <v>3.220754035235387</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1647432945157483</v>
+        <v>0.05591804349656293</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2620074208434033</v>
+        <v>0.30976229068051</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1.513507607781165</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.83502066209229</v>
+        <v>6.429550177981923</v>
       </c>
       <c r="C9">
-        <v>0.9781230835668282</v>
+        <v>1.022280529031264</v>
       </c>
       <c r="D9">
-        <v>0.2311961864200214</v>
+        <v>0.02060442713404953</v>
       </c>
       <c r="E9">
-        <v>0.1407823569511208</v>
+        <v>0.01683999909473366</v>
       </c>
       <c r="F9">
-        <v>8.439132674280785</v>
+        <v>3.844823856614738</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2249575643535948</v>
+        <v>0.05413040491863086</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3681319695570551</v>
+        <v>0.394351787317035</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>1.417526557192488</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.945142108045843</v>
+        <v>7.664372753095677</v>
       </c>
       <c r="C10">
-        <v>1.207314424683659</v>
+        <v>1.240577877194141</v>
       </c>
       <c r="D10">
-        <v>0.277886132166671</v>
+        <v>0.02590867234360417</v>
       </c>
       <c r="E10">
-        <v>0.1722614898190855</v>
+        <v>0.01699316224018349</v>
       </c>
       <c r="F10">
-        <v>10.1897490600542</v>
+        <v>4.357733417425806</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2735386095491705</v>
+        <v>0.053140229822354</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4536212473335652</v>
+        <v>0.4608393657582326</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>1.36107177854845</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.480705680186759</v>
+        <v>8.24846600883177</v>
       </c>
       <c r="C11">
-        <v>1.318305453742369</v>
+        <v>1.343634632130431</v>
       </c>
       <c r="D11">
-        <v>0.300593792392533</v>
+        <v>0.02853039719973083</v>
       </c>
       <c r="E11">
-        <v>0.1874901381183278</v>
+        <v>0.01707751479788144</v>
       </c>
       <c r="F11">
-        <v>11.03613327946226</v>
+        <v>4.606622125580799</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2970471377209307</v>
+        <v>0.05276983168563731</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4949765551341443</v>
+        <v>0.4923449592616436</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1.339112147415108</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.689027376134447</v>
+        <v>8.473458897251703</v>
       </c>
       <c r="C12">
-        <v>1.361563234002119</v>
+        <v>1.38330896102957</v>
       </c>
       <c r="D12">
-        <v>0.3094586004387594</v>
+        <v>0.02955960791935297</v>
       </c>
       <c r="E12">
-        <v>0.1934201605899446</v>
+        <v>0.01711192908537207</v>
       </c>
       <c r="F12">
-        <v>11.36562728857541</v>
+        <v>4.703480921905509</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3062025948510225</v>
+        <v>0.05264206531206739</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5110826928537548</v>
+        <v>0.504487922592034</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1.331399373493269</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.643895316633007</v>
+        <v>8.424822732071561</v>
       </c>
       <c r="C13">
-        <v>1.352187400257606</v>
+        <v>1.374733580159841</v>
       </c>
       <c r="D13">
-        <v>0.3075365548815512</v>
+        <v>0.02933621467017389</v>
       </c>
       <c r="E13">
-        <v>0.19213515406026</v>
+        <v>0.01710440084741727</v>
       </c>
       <c r="F13">
-        <v>11.29423172185506</v>
+        <v>4.682497979969497</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3042185917743936</v>
+        <v>0.05266900896478788</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5075924141669006</v>
+        <v>0.5018627151743686</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1.333032444606232</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.49772645216467</v>
+        <v>8.266896217439239</v>
       </c>
       <c r="C14">
-        <v>1.321837954012892</v>
+        <v>1.346884964228764</v>
       </c>
       <c r="D14">
-        <v>0.3013174125262594</v>
+        <v>0.0286143002489041</v>
       </c>
       <c r="E14">
-        <v>0.1879745163141351</v>
+        <v>0.01708029420383494</v>
       </c>
       <c r="F14">
-        <v>11.06304896034288</v>
+        <v>4.614536098424395</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2977949502138344</v>
+        <v>0.05275906363767646</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4962920762914109</v>
+        <v>0.4933395124561883</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>1.338465102410296</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.408950165718295</v>
+        <v>8.170677023431608</v>
       </c>
       <c r="C15">
-        <v>1.303416824971521</v>
+        <v>1.329914957699714</v>
       </c>
       <c r="D15">
-        <v>0.2975444994762597</v>
+        <v>0.02817705950791805</v>
       </c>
       <c r="E15">
-        <v>0.1854483744909459</v>
+        <v>0.01706586209410188</v>
       </c>
       <c r="F15">
-        <v>10.92267401451159</v>
+        <v>4.57325946777064</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2938949910491715</v>
+        <v>0.05281588390582215</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4894314504623622</v>
+        <v>0.4881474902771572</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1.341873473746233</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.910846374413609</v>
+        <v>7.626699524928483</v>
       </c>
       <c r="C16">
-        <v>1.200217087235131</v>
+        <v>1.233927327938886</v>
       </c>
       <c r="D16">
-        <v>0.276436058889999</v>
+        <v>0.02574205902464399</v>
       </c>
       <c r="E16">
-        <v>0.1712871546861905</v>
+        <v>0.01698797417173509</v>
       </c>
       <c r="F16">
-        <v>10.13558602560829</v>
+        <v>4.341811589947497</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2720346784458911</v>
+        <v>0.05316612762504391</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4509754882632393</v>
+        <v>0.458808319350382</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>1.362587319563687</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.613818353349643</v>
+        <v>7.299108651813071</v>
       </c>
       <c r="C17">
-        <v>1.138796530415306</v>
+        <v>1.176075428021761</v>
       </c>
       <c r="D17">
-        <v>0.2638977043794881</v>
+        <v>0.0243059465873543</v>
       </c>
       <c r="E17">
-        <v>0.1628532418785369</v>
+        <v>0.01694418639919637</v>
       </c>
       <c r="F17">
-        <v>9.666690833944841</v>
+        <v>4.204058507345081</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2590172892121387</v>
+        <v>0.05340214536491494</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4280736665748961</v>
+        <v>0.4411531673260356</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>1.376292616214599</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.445771682148973</v>
+        <v>7.112751676528546</v>
       </c>
       <c r="C18">
-        <v>1.104083739777906</v>
+        <v>1.143146210741065</v>
       </c>
       <c r="D18">
-        <v>0.2568202171310077</v>
+        <v>0.02349914231444572</v>
       </c>
       <c r="E18">
-        <v>0.158085455002734</v>
+        <v>0.01692035689498256</v>
       </c>
       <c r="F18">
-        <v>9.401573851892465</v>
+        <v>4.126266028530864</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2516589812157974</v>
+        <v>0.05354536280646549</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4151266531869098</v>
+        <v>0.4311148552568369</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>1.384521222102094</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.389324357751889</v>
+        <v>7.04999243834601</v>
       </c>
       <c r="C19">
-        <v>1.09242926696686</v>
+        <v>1.132053262980321</v>
       </c>
       <c r="D19">
-        <v>0.2544454983951141</v>
+        <v>0.02322909471052981</v>
       </c>
       <c r="E19">
-        <v>0.1564845808242481</v>
+        <v>0.01691251170027863</v>
       </c>
       <c r="F19">
-        <v>9.312548380827849</v>
+        <v>4.100163671041486</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2491883793861689</v>
+        <v>0.05359510848896498</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4107793227524823</v>
+        <v>0.4277351835701353</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1.387364772848443</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.645140869329168</v>
+        <v>7.333763580079676</v>
       </c>
       <c r="C20">
-        <v>1.145269559108471</v>
+        <v>1.1821973505605</v>
       </c>
       <c r="D20">
-        <v>0.2652181852908484</v>
+        <v>0.02445679235326992</v>
       </c>
       <c r="E20">
-        <v>0.1637422265957156</v>
+        <v>0.01694870495108852</v>
       </c>
       <c r="F20">
-        <v>9.716119969923852</v>
+        <v>4.21857107400669</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2603893380271032</v>
+        <v>0.05337624148058318</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4304876756070399</v>
+        <v>0.4430203237933199</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1.374797432249423</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.540499746150488</v>
+        <v>8.313174464339681</v>
       </c>
       <c r="C21">
-        <v>1.330716583267218</v>
+        <v>1.355046201223047</v>
       </c>
       <c r="D21">
-        <v>0.3031364024410266</v>
+        <v>0.02882529877075513</v>
       </c>
       <c r="E21">
-        <v>0.1891918645395663</v>
+        <v>0.01708730456934715</v>
       </c>
       <c r="F21">
-        <v>11.13069250685959</v>
+        <v>4.634424045002305</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2996743873624439</v>
+        <v>0.05273226464046132</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4995983171425848</v>
+        <v>0.495836942495032</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1.336852441715294</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.1585637645627</v>
+        <v>8.975829952468757</v>
       </c>
       <c r="C22">
-        <v>1.459249162429273</v>
+        <v>1.471860479323425</v>
       </c>
       <c r="D22">
-        <v>0.3295045707120465</v>
+        <v>0.03189652342599913</v>
       </c>
       <c r="E22">
-        <v>0.2067979740677401</v>
+        <v>0.01719252114465109</v>
       </c>
       <c r="F22">
-        <v>12.10876745761493</v>
+        <v>4.921640736341033</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3268594674032954</v>
+        <v>0.05238479775090354</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5474254233574101</v>
+        <v>0.5316125370307532</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>1.315607244856452</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.825231185995108</v>
+        <v>8.619872136604613</v>
       </c>
       <c r="C23">
-        <v>1.389872908570794</v>
+        <v>1.40912128392614</v>
       </c>
       <c r="D23">
-        <v>0.3152642241237942</v>
+        <v>0.03023514202539701</v>
       </c>
       <c r="E23">
-        <v>0.1972991275427063</v>
+        <v>0.01713488597988666</v>
       </c>
       <c r="F23">
-        <v>11.58113053739788</v>
+        <v>4.766796110828523</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3121917831874654</v>
+        <v>0.05256316216977197</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5216191733346633</v>
+        <v>0.5123917073412372</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>1.326595554587598</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.630971572312774</v>
+        <v>7.318089965194417</v>
       </c>
       <c r="C24">
-        <v>1.142341256670932</v>
+        <v>1.179428607611953</v>
       </c>
       <c r="D24">
-        <v>0.2646207918394907</v>
+        <v>0.02438853677990949</v>
       </c>
       <c r="E24">
-        <v>0.1633400667109015</v>
+        <v>0.01694665795145295</v>
       </c>
       <c r="F24">
-        <v>9.693759303819377</v>
+        <v>4.212005598013292</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2597686473088743</v>
+        <v>0.05338792925225277</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4293956248350241</v>
+        <v>0.4421758361979897</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>1.375472322067537</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.447188284361289</v>
+        <v>5.99118191378534</v>
       </c>
       <c r="C25">
-        <v>0.8982774742327422</v>
+        <v>0.9445806589380368</v>
       </c>
       <c r="D25">
-        <v>0.2150043742343541</v>
+        <v>0.0187994514911658</v>
       </c>
       <c r="E25">
-        <v>0.1298170743406395</v>
+        <v>0.01679457731524348</v>
       </c>
       <c r="F25">
-        <v>7.828964750181342</v>
+        <v>3.667568923372187</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2080384885377384</v>
+        <v>0.05456023769763974</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3383385722231083</v>
+        <v>0.3708014387165974</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.441223570156382</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_26/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.062554487182695</v>
+        <v>0.9814323265995597</v>
       </c>
       <c r="C2">
-        <v>0.7794522374265114</v>
+        <v>0.05662153706731488</v>
       </c>
       <c r="D2">
-        <v>0.01511227129676485</v>
+        <v>0.1191762311482449</v>
       </c>
       <c r="E2">
-        <v>0.01671612379237447</v>
+        <v>0.01725228842266269</v>
       </c>
       <c r="F2">
-        <v>3.301852094397645</v>
+        <v>7.993232552691921</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05563675632314258</v>
+        <v>0.1904116356515431</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8063436306699145</v>
       </c>
       <c r="L2">
-        <v>0.3210466485785446</v>
+        <v>0.05664783728235534</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1637968202064357</v>
       </c>
       <c r="N2">
-        <v>1.498826836852615</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.456012385283771</v>
+        <v>0.892159215243737</v>
       </c>
       <c r="C3">
-        <v>0.6710576215096751</v>
+        <v>0.04856511882897507</v>
       </c>
       <c r="D3">
-        <v>0.01280541352549136</v>
+        <v>0.1055151626326989</v>
       </c>
       <c r="E3">
-        <v>0.01667994008964435</v>
+        <v>0.01756474225984528</v>
       </c>
       <c r="F3">
-        <v>3.071331026658754</v>
+        <v>7.353557743527688</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05648722300136022</v>
+        <v>0.1810877224085985</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7202130274487786</v>
       </c>
       <c r="L3">
-        <v>0.2886822728086145</v>
+        <v>0.05563778392211916</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.151324456020884</v>
       </c>
       <c r="N3">
-        <v>1.542783323283501</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.092764960146383</v>
+        <v>0.8396077783805822</v>
       </c>
       <c r="C4">
-        <v>0.6058601095614335</v>
+        <v>0.04373146348769552</v>
       </c>
       <c r="D4">
-        <v>0.01146299882724477</v>
+        <v>0.09721483957734023</v>
       </c>
       <c r="E4">
-        <v>0.01666505588960715</v>
+        <v>0.01777143385665125</v>
       </c>
       <c r="F4">
-        <v>2.937044781441983</v>
+        <v>6.966605590566814</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05706559748530537</v>
+        <v>0.1754381574585437</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6693365447842865</v>
       </c>
       <c r="L4">
-        <v>0.2693688971540666</v>
+        <v>0.05518146322105011</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1440718240125598</v>
       </c>
       <c r="N4">
-        <v>1.571970217218706</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.946770637280736</v>
+        <v>0.8187174397168349</v>
       </c>
       <c r="C5">
-        <v>0.5795831755076506</v>
+        <v>0.04178561968528527</v>
       </c>
       <c r="D5">
-        <v>0.01093184368659195</v>
+        <v>0.09384968842184094</v>
       </c>
       <c r="E5">
-        <v>0.01666070026678379</v>
+        <v>0.01785938780898277</v>
       </c>
       <c r="F5">
-        <v>2.883974611734118</v>
+        <v>6.810185594332637</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05731495460866043</v>
+        <v>0.1731519045655432</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6490653199364687</v>
       </c>
       <c r="L5">
-        <v>0.2616244353666275</v>
+        <v>0.05503484849820239</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1412112115676791</v>
       </c>
       <c r="N5">
-        <v>1.584386134427433</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.92264358647617</v>
+        <v>0.815279087294158</v>
       </c>
       <c r="C6">
-        <v>0.5752361595745015</v>
+        <v>0.04146383325954872</v>
       </c>
       <c r="D6">
-        <v>0.01084453141917763</v>
+        <v>0.09329182043695994</v>
       </c>
       <c r="E6">
-        <v>0.01666007669070901</v>
+        <v>0.01787421732341388</v>
       </c>
       <c r="F6">
-        <v>2.87525744971154</v>
+        <v>6.784283222786115</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05735717275387842</v>
+        <v>0.1727731575434603</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6457259553526455</v>
       </c>
       <c r="L6">
-        <v>0.2603456780983464</v>
+        <v>0.05501282765769133</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1407417447301214</v>
       </c>
       <c r="N6">
-        <v>1.586478480126658</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.09078814606687</v>
+        <v>0.8393239748660335</v>
       </c>
       <c r="C7">
-        <v>0.6055046112194873</v>
+        <v>0.04370513003051713</v>
       </c>
       <c r="D7">
-        <v>0.01145577453090496</v>
+        <v>0.09716939194432683</v>
       </c>
       <c r="E7">
-        <v>0.01666499038990799</v>
+        <v>0.01777260495834954</v>
       </c>
       <c r="F7">
-        <v>2.936322582447161</v>
+        <v>6.964491176267813</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05706890565500977</v>
+        <v>0.1754072632550603</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6690613469986175</v>
       </c>
       <c r="L7">
-        <v>0.2692639611034053</v>
+        <v>0.05517932899010702</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1440328694882744</v>
       </c>
       <c r="N7">
-        <v>1.572135587162947</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.851341334540223</v>
+        <v>0.9501536133203956</v>
       </c>
       <c r="C8">
-        <v>0.7417645620674875</v>
+        <v>0.05381738833579419</v>
       </c>
       <c r="D8">
-        <v>0.01429977495111245</v>
+        <v>0.1144447420480503</v>
       </c>
       <c r="E8">
-        <v>0.01670203936631609</v>
+        <v>0.01735693696550022</v>
       </c>
       <c r="F8">
-        <v>3.220754035235387</v>
+        <v>7.771344376341091</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05591804349656293</v>
+        <v>0.1871792560427252</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7762016349632574</v>
       </c>
       <c r="L8">
-        <v>0.30976229068051</v>
+        <v>0.05626439132536021</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1594077623376151</v>
       </c>
       <c r="N8">
-        <v>1.513507607781165</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.429550177981923</v>
+        <v>1.187646321188794</v>
       </c>
       <c r="C9">
-        <v>1.022280529031264</v>
+        <v>0.07477026742241577</v>
       </c>
       <c r="D9">
-        <v>0.02060442713404953</v>
+        <v>0.1492513313225885</v>
       </c>
       <c r="E9">
-        <v>0.01683999909473366</v>
+        <v>0.01665999551216446</v>
       </c>
       <c r="F9">
-        <v>3.844823856614738</v>
+        <v>9.409380499103492</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05413040491863086</v>
+        <v>0.2110089282652439</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.004412916803545</v>
       </c>
       <c r="L9">
-        <v>0.394351787317035</v>
+        <v>0.05978534344589548</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1931272562087472</v>
       </c>
       <c r="N9">
-        <v>1.417526557192488</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.664372753095677</v>
+        <v>1.377852123176467</v>
       </c>
       <c r="C10">
-        <v>1.240577877194141</v>
+        <v>0.09120317193945482</v>
       </c>
       <c r="D10">
-        <v>0.02590867234360417</v>
+        <v>0.1757521926616334</v>
       </c>
       <c r="E10">
-        <v>0.01699316224018349</v>
+        <v>0.01622070840502632</v>
       </c>
       <c r="F10">
-        <v>4.357733417425806</v>
+        <v>10.66188314611122</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.053140229822354</v>
+        <v>0.2291981958702678</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.186513746505256</v>
       </c>
       <c r="L10">
-        <v>0.4608393657582326</v>
+        <v>0.0633665522308533</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2206258805257519</v>
       </c>
       <c r="N10">
-        <v>1.36107177854845</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.24846600883177</v>
+        <v>1.468674245411705</v>
       </c>
       <c r="C11">
-        <v>1.343634632130431</v>
+        <v>0.09899629136600652</v>
       </c>
       <c r="D11">
-        <v>0.02853039719973083</v>
+        <v>0.188101203283523</v>
       </c>
       <c r="E11">
-        <v>0.01707751479788144</v>
+        <v>0.01603687135406862</v>
       </c>
       <c r="F11">
-        <v>4.606622125580799</v>
+        <v>11.24613760731251</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05276983168563731</v>
+        <v>0.2376787027893243</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.273361385242652</v>
       </c>
       <c r="L11">
-        <v>0.4923449592616436</v>
+        <v>0.06524894188422081</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2338680995375597</v>
       </c>
       <c r="N11">
-        <v>1.339112147415108</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.473458897251703</v>
+        <v>1.503768105274105</v>
       </c>
       <c r="C12">
-        <v>1.38330896102957</v>
+        <v>0.1020019091466793</v>
       </c>
       <c r="D12">
-        <v>0.02955960791935297</v>
+        <v>0.192828323812094</v>
       </c>
       <c r="E12">
-        <v>0.01711192908537207</v>
+        <v>0.01596957949706512</v>
       </c>
       <c r="F12">
-        <v>4.703480921905509</v>
+        <v>11.46982284491827</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05264206531206739</v>
+        <v>0.2409251547553595</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.306908273949659</v>
       </c>
       <c r="L12">
-        <v>0.504487922592034</v>
+        <v>0.0660017578141705</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.239001444014491</v>
       </c>
       <c r="N12">
-        <v>1.331399373493269</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.424822732071561</v>
+        <v>1.496177368554072</v>
       </c>
       <c r="C13">
-        <v>1.374733580159841</v>
+        <v>0.1013520163905923</v>
       </c>
       <c r="D13">
-        <v>0.02933621467017389</v>
+        <v>0.1918078457728569</v>
       </c>
       <c r="E13">
-        <v>0.01710440084741727</v>
+        <v>0.01598396826680437</v>
       </c>
       <c r="F13">
-        <v>4.682497979969497</v>
+        <v>11.42153350887435</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05266900896478788</v>
+        <v>0.2402243200398573</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.299652578227438</v>
       </c>
       <c r="L13">
-        <v>0.5018627151743686</v>
+        <v>0.06583778471623702</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2378903706989668</v>
       </c>
       <c r="N13">
-        <v>1.333032444606232</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.266896217439239</v>
+        <v>1.471546862159016</v>
       </c>
       <c r="C14">
-        <v>1.346884964228764</v>
+        <v>0.09924241746442419</v>
       </c>
       <c r="D14">
-        <v>0.0286143002489041</v>
+        <v>0.1884890349718944</v>
       </c>
       <c r="E14">
-        <v>0.01708029420383494</v>
+        <v>0.01603128850533908</v>
       </c>
       <c r="F14">
-        <v>4.614536098424395</v>
+        <v>11.26448920571164</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05275906363767646</v>
+        <v>0.2379450540841788</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.276107575023929</v>
       </c>
       <c r="L14">
-        <v>0.4933395124561883</v>
+        <v>0.06531005280462665</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2342879589754219</v>
       </c>
       <c r="N14">
-        <v>1.338465102410296</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.170677023431608</v>
+        <v>1.456553985043854</v>
       </c>
       <c r="C15">
-        <v>1.329914957699714</v>
+        <v>0.09795761197071329</v>
       </c>
       <c r="D15">
-        <v>0.02817705950791805</v>
+        <v>0.1864630580666784</v>
       </c>
       <c r="E15">
-        <v>0.01706586209410188</v>
+        <v>0.01606057682227258</v>
       </c>
       <c r="F15">
-        <v>4.57325946777064</v>
+        <v>11.16862425069519</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05281588390582215</v>
+        <v>0.2365536770817513</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.261774124346147</v>
       </c>
       <c r="L15">
-        <v>0.4881474902771572</v>
+        <v>0.06499212434474799</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2320972764836959</v>
       </c>
       <c r="N15">
-        <v>1.341873473746233</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.626699524928483</v>
+        <v>1.372010055953297</v>
       </c>
       <c r="C16">
-        <v>1.233927327938886</v>
+        <v>0.09070099593520808</v>
       </c>
       <c r="D16">
-        <v>0.02574205902464399</v>
+        <v>0.1749517763133923</v>
       </c>
       <c r="E16">
-        <v>0.01698797417173509</v>
+        <v>0.01623304635486278</v>
       </c>
       <c r="F16">
-        <v>4.341811589947497</v>
+        <v>10.62402184347235</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05316612762504391</v>
+        <v>0.2286485718473585</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.180925585421164</v>
       </c>
       <c r="L16">
-        <v>0.458808319350382</v>
+        <v>0.06324892559501194</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2197763272583373</v>
       </c>
       <c r="N16">
-        <v>1.362587319563687</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.299108651813071</v>
+        <v>1.321301845802424</v>
       </c>
       <c r="C17">
-        <v>1.176075428021761</v>
+        <v>0.08633660187668113</v>
       </c>
       <c r="D17">
-        <v>0.0243059465873543</v>
+        <v>0.1679709893659123</v>
       </c>
       <c r="E17">
-        <v>0.01694418639919637</v>
+        <v>0.01634296307988459</v>
       </c>
       <c r="F17">
-        <v>4.204058507345081</v>
+        <v>10.29387733773197</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05340214536491494</v>
+        <v>0.2238555010379244</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.132410317271194</v>
       </c>
       <c r="L17">
-        <v>0.4411531673260356</v>
+        <v>0.06224680461437515</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2124145727888553</v>
       </c>
       <c r="N17">
-        <v>1.376292616214599</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.112751676528546</v>
+        <v>1.292534649876814</v>
       </c>
       <c r="C18">
-        <v>1.143146210741065</v>
+        <v>0.0838556276519995</v>
       </c>
       <c r="D18">
-        <v>0.02349914231444572</v>
+        <v>0.1639828934720384</v>
       </c>
       <c r="E18">
-        <v>0.01692035689498256</v>
+        <v>0.0164076883791493</v>
       </c>
       <c r="F18">
-        <v>4.126266028530864</v>
+        <v>10.10532654225796</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05354536280646549</v>
+        <v>0.2211176934815597</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.104877416094723</v>
       </c>
       <c r="L18">
-        <v>0.4311148552568369</v>
+        <v>0.06169401200968849</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2082483803275892</v>
       </c>
       <c r="N18">
-        <v>1.384521222102094</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.04999243834601</v>
+        <v>1.282860688587078</v>
       </c>
       <c r="C19">
-        <v>1.132053262980321</v>
+        <v>0.08302039568117436</v>
       </c>
       <c r="D19">
-        <v>0.02322909471052981</v>
+        <v>0.16263699596945</v>
       </c>
       <c r="E19">
-        <v>0.01691251170027863</v>
+        <v>0.01642986095057664</v>
       </c>
       <c r="F19">
-        <v>4.100163671041486</v>
+        <v>10.041706334465</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05359510848896498</v>
+        <v>0.2201938339550367</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.095616742219931</v>
       </c>
       <c r="L19">
-        <v>0.4277351835701353</v>
+        <v>0.06151079773301404</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2068490927684365</v>
       </c>
       <c r="N19">
-        <v>1.387364772848443</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.333763580079676</v>
+        <v>1.326657971560394</v>
       </c>
       <c r="C20">
-        <v>1.1821973505605</v>
+        <v>0.08679810527050336</v>
       </c>
       <c r="D20">
-        <v>0.02445679235326992</v>
+        <v>0.1687112455430224</v>
       </c>
       <c r="E20">
-        <v>0.01694870495108852</v>
+        <v>0.0163311064343814</v>
       </c>
       <c r="F20">
-        <v>4.21857107400669</v>
+        <v>10.32888068341509</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05337624148058318</v>
+        <v>0.2243637237628633</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.137535802205861</v>
       </c>
       <c r="L20">
-        <v>0.4430203237933199</v>
+        <v>0.06235101504267959</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2131911048635757</v>
       </c>
       <c r="N20">
-        <v>1.374797432249423</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.313174464339681</v>
+        <v>1.478761680810209</v>
       </c>
       <c r="C21">
-        <v>1.355046201223047</v>
+        <v>0.0998605013117384</v>
       </c>
       <c r="D21">
-        <v>0.02882529877075513</v>
+        <v>0.1894623973615666</v>
       </c>
       <c r="E21">
-        <v>0.01708730456934715</v>
+        <v>0.0160173261491896</v>
       </c>
       <c r="F21">
-        <v>4.634424045002305</v>
+        <v>11.31054761544056</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05273226464046132</v>
+        <v>0.2386135314660436</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.283004697143127</v>
       </c>
       <c r="L21">
-        <v>0.495836942495032</v>
+        <v>0.06546394419788015</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2353427349635133</v>
       </c>
       <c r="N21">
-        <v>1.336852441715294</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.975829952468757</v>
+        <v>1.582305929676068</v>
       </c>
       <c r="C22">
-        <v>1.471860479323425</v>
+        <v>0.1087204026773776</v>
       </c>
       <c r="D22">
-        <v>0.03189652342599913</v>
+        <v>0.2033254410304437</v>
       </c>
       <c r="E22">
-        <v>0.01719252114465109</v>
+        <v>0.01582580793333932</v>
       </c>
       <c r="F22">
-        <v>4.921640736341033</v>
+        <v>11.96654885273</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05238479775090354</v>
+        <v>0.2481340218616737</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.381968140994587</v>
       </c>
       <c r="L22">
-        <v>0.5316125370307532</v>
+        <v>0.06773355566734551</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2505200930277098</v>
       </c>
       <c r="N22">
-        <v>1.315607244856452</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.619872136604613</v>
+        <v>1.526633487271255</v>
       </c>
       <c r="C23">
-        <v>1.40912128392614</v>
+        <v>0.1039589162654835</v>
       </c>
       <c r="D23">
-        <v>0.03023514202539701</v>
+        <v>0.1958958196239706</v>
       </c>
       <c r="E23">
-        <v>0.01713488597988666</v>
+        <v>0.01592677582740887</v>
       </c>
       <c r="F23">
-        <v>4.766796110828523</v>
+        <v>11.61497885669297</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05256316216977197</v>
+        <v>0.2430318073791895</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.328763115080875</v>
       </c>
       <c r="L23">
-        <v>0.5123917073412372</v>
+        <v>0.06649940128150433</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2423507118714312</v>
       </c>
       <c r="N23">
-        <v>1.326595554587598</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.318089965194417</v>
+        <v>1.32423527214209</v>
       </c>
       <c r="C24">
-        <v>1.179428607611953</v>
+        <v>0.08658937248328868</v>
       </c>
       <c r="D24">
-        <v>0.02438853677990949</v>
+        <v>0.168376497708735</v>
       </c>
       <c r="E24">
-        <v>0.01694665795145295</v>
+        <v>0.01633646205142814</v>
       </c>
       <c r="F24">
-        <v>4.212005598013292</v>
+        <v>10.31305179240201</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05338792925225277</v>
+        <v>0.2241339012504966</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.135217457865281</v>
       </c>
       <c r="L24">
-        <v>0.4421758361979897</v>
+        <v>0.06230382907305909</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2128398295734328</v>
       </c>
       <c r="N24">
-        <v>1.375472322067537</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.99118191378534</v>
+        <v>1.120908764177869</v>
       </c>
       <c r="C25">
-        <v>0.9445806589380368</v>
+        <v>0.06894767475291275</v>
       </c>
       <c r="D25">
-        <v>0.0187994514911658</v>
+        <v>0.1397005664949376</v>
       </c>
       <c r="E25">
-        <v>0.01679457731524348</v>
+        <v>0.0168358201800185</v>
       </c>
       <c r="F25">
-        <v>3.667568923372187</v>
+        <v>8.958817429954252</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05456023769763974</v>
+        <v>0.2044605589245947</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9404092879318569</v>
       </c>
       <c r="L25">
-        <v>0.3708014387165974</v>
+        <v>0.05866969208339157</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1835700888686951</v>
       </c>
       <c r="N25">
-        <v>1.441223570156382</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_26/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9814323265995597</v>
+        <v>1.770638372978169</v>
       </c>
       <c r="C2">
-        <v>0.05662153706731488</v>
+        <v>0.01311926495755245</v>
       </c>
       <c r="D2">
-        <v>0.1191762311482449</v>
+        <v>0.03223974428605914</v>
       </c>
       <c r="E2">
-        <v>0.01725228842266269</v>
+        <v>0.06383820745122026</v>
       </c>
       <c r="F2">
-        <v>7.993232552691921</v>
+        <v>7.662150779775345</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1904116356515431</v>
+        <v>0.2588048803499703</v>
       </c>
       <c r="K2">
-        <v>0.8063436306699145</v>
+        <v>1.23689735626985</v>
       </c>
       <c r="L2">
-        <v>0.05664783728235534</v>
+        <v>0.2246228339345819</v>
       </c>
       <c r="M2">
-        <v>0.1637968202064357</v>
+        <v>0.3682373811667823</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.892159215243737</v>
+        <v>1.76829961054716</v>
       </c>
       <c r="C3">
-        <v>0.04856511882897507</v>
+        <v>0.01138622289428781</v>
       </c>
       <c r="D3">
-        <v>0.1055151626326989</v>
+        <v>0.02831459372056599</v>
       </c>
       <c r="E3">
-        <v>0.01756474225984528</v>
+        <v>0.06421076739119824</v>
       </c>
       <c r="F3">
-        <v>7.353557743527688</v>
+        <v>7.468097427214133</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1810877224085985</v>
+        <v>0.2557179444047435</v>
       </c>
       <c r="K3">
-        <v>0.7202130274487786</v>
+        <v>1.231879661895704</v>
       </c>
       <c r="L3">
-        <v>0.05563778392211916</v>
+        <v>0.2269173297750591</v>
       </c>
       <c r="M3">
-        <v>0.151324456020884</v>
+        <v>0.3693921511879914</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8396077783805822</v>
+        <v>1.768133792704134</v>
       </c>
       <c r="C4">
-        <v>0.04373146348769552</v>
+        <v>0.01033676375450909</v>
       </c>
       <c r="D4">
-        <v>0.09721483957734023</v>
+        <v>0.02589476758404174</v>
       </c>
       <c r="E4">
-        <v>0.01777143385665125</v>
+        <v>0.06445473036819926</v>
       </c>
       <c r="F4">
-        <v>6.966605590566814</v>
+        <v>7.349342984866155</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1754381574585437</v>
+        <v>0.2538144995235854</v>
       </c>
       <c r="K4">
-        <v>0.6693365447842865</v>
+        <v>1.229838432415718</v>
       </c>
       <c r="L4">
-        <v>0.05518146322105011</v>
+        <v>0.2284582534628612</v>
       </c>
       <c r="M4">
-        <v>0.1440718240125598</v>
+        <v>0.3703540916250851</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8187174397168349</v>
+        <v>1.768385646666843</v>
       </c>
       <c r="C5">
-        <v>0.04178561968528527</v>
+        <v>0.009912679052497708</v>
       </c>
       <c r="D5">
-        <v>0.09384968842184094</v>
+        <v>0.02490607137529111</v>
       </c>
       <c r="E5">
-        <v>0.01785938780898277</v>
+        <v>0.06455798277132851</v>
       </c>
       <c r="F5">
-        <v>6.810185594332637</v>
+        <v>7.301045931885881</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1731519045655432</v>
+        <v>0.2530367374710352</v>
       </c>
       <c r="K5">
-        <v>0.6490653199364687</v>
+        <v>1.229267871344064</v>
       </c>
       <c r="L5">
-        <v>0.05503484849820239</v>
+        <v>0.2291194510675361</v>
       </c>
       <c r="M5">
-        <v>0.1412112115676791</v>
+        <v>0.3708097158614514</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.815279087294158</v>
+        <v>1.768446760421568</v>
       </c>
       <c r="C6">
-        <v>0.04146383325954872</v>
+        <v>0.009842473273231178</v>
       </c>
       <c r="D6">
-        <v>0.09329182043695994</v>
+        <v>0.02474173812076685</v>
       </c>
       <c r="E6">
-        <v>0.01787421732341388</v>
+        <v>0.0645753597308194</v>
       </c>
       <c r="F6">
-        <v>6.784283222786115</v>
+        <v>7.29303197494383</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1727731575434603</v>
+        <v>0.2529074623055365</v>
       </c>
       <c r="K6">
-        <v>0.6457259553526455</v>
+        <v>1.229188904546945</v>
       </c>
       <c r="L6">
-        <v>0.05501282765769133</v>
+        <v>0.2292312524355289</v>
       </c>
       <c r="M6">
-        <v>0.1407417447301214</v>
+        <v>0.3708892156879564</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8393239748660335</v>
+        <v>1.768135895918249</v>
       </c>
       <c r="C7">
-        <v>0.04370513003051713</v>
+        <v>0.01033103004449742</v>
       </c>
       <c r="D7">
-        <v>0.09716939194432683</v>
+        <v>0.02588144438318096</v>
       </c>
       <c r="E7">
-        <v>0.01777260495834954</v>
+        <v>0.06445610732175222</v>
       </c>
       <c r="F7">
-        <v>6.964491176267813</v>
+        <v>7.348691247812411</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1754072632550603</v>
+        <v>0.2538040189133071</v>
       </c>
       <c r="K7">
-        <v>0.6690613469986175</v>
+        <v>1.229829680041846</v>
       </c>
       <c r="L7">
-        <v>0.05517932899010702</v>
+        <v>0.2284670358861973</v>
       </c>
       <c r="M7">
-        <v>0.1440328694882744</v>
+        <v>0.3703599786753777</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9501536133203956</v>
+        <v>1.769568343775347</v>
       </c>
       <c r="C8">
-        <v>0.05381738833579419</v>
+        <v>0.01251861243876817</v>
       </c>
       <c r="D8">
-        <v>0.1144447420480503</v>
+        <v>0.03088829371017709</v>
       </c>
       <c r="E8">
-        <v>0.01735693696550022</v>
+        <v>0.06396351590999583</v>
       </c>
       <c r="F8">
-        <v>7.771344376341091</v>
+        <v>7.595157307588323</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1871792560427252</v>
+        <v>0.257742134804225</v>
       </c>
       <c r="K8">
-        <v>0.7762016349632574</v>
+        <v>1.234951360355979</v>
       </c>
       <c r="L8">
-        <v>0.05626439132536021</v>
+        <v>0.2253865852761905</v>
       </c>
       <c r="M8">
-        <v>0.1594077623376151</v>
+        <v>0.3685830714677607</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.187646321188794</v>
+        <v>1.782458746692413</v>
       </c>
       <c r="C9">
-        <v>0.07477026742241577</v>
+        <v>0.01692939683604067</v>
       </c>
       <c r="D9">
-        <v>0.1492513313225885</v>
+        <v>0.04063595127189501</v>
       </c>
       <c r="E9">
-        <v>0.01665999551216446</v>
+        <v>0.06311773911260854</v>
       </c>
       <c r="F9">
-        <v>9.409380499103492</v>
+        <v>8.081771553619518</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2110089282652439</v>
+        <v>0.2654042491395501</v>
       </c>
       <c r="K9">
-        <v>1.004412916803545</v>
+        <v>1.25325567135215</v>
       </c>
       <c r="L9">
-        <v>0.05978534344589548</v>
+        <v>0.2203921392919597</v>
       </c>
       <c r="M9">
-        <v>0.1931272562087472</v>
+        <v>0.3671045329615481</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.377852123176467</v>
+        <v>1.798085353570201</v>
       </c>
       <c r="C10">
-        <v>0.09120317193945482</v>
+        <v>0.02025071311200577</v>
       </c>
       <c r="D10">
-        <v>0.1757521926616334</v>
+        <v>0.04776429543628069</v>
       </c>
       <c r="E10">
-        <v>0.01622070840502632</v>
+        <v>0.06256895009657804</v>
       </c>
       <c r="F10">
-        <v>10.66188314611122</v>
+        <v>8.4415528705741</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2291981958702678</v>
+        <v>0.2710018749575198</v>
       </c>
       <c r="K10">
-        <v>1.186513746505256</v>
+        <v>1.271761115055767</v>
       </c>
       <c r="L10">
-        <v>0.0633665522308533</v>
+        <v>0.2173582705303687</v>
       </c>
       <c r="M10">
-        <v>0.2206258805257519</v>
+        <v>0.3672410474560159</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.468674245411705</v>
+        <v>1.806533849416041</v>
       </c>
       <c r="C11">
-        <v>0.09899629136600652</v>
+        <v>0.02178072871076608</v>
       </c>
       <c r="D11">
-        <v>0.188101203283523</v>
+        <v>0.05100210241022296</v>
       </c>
       <c r="E11">
-        <v>0.01603687135406862</v>
+        <v>0.06233491532617963</v>
       </c>
       <c r="F11">
-        <v>11.24613760731251</v>
+        <v>8.605776620533959</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2376787027893243</v>
+        <v>0.2735426346901448</v>
       </c>
       <c r="K11">
-        <v>1.273361385242652</v>
+        <v>1.281283015418865</v>
       </c>
       <c r="L11">
-        <v>0.06524894188422081</v>
+        <v>0.216115626335025</v>
       </c>
       <c r="M11">
-        <v>0.2338680995375597</v>
+        <v>0.3675687559826564</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.503768105274105</v>
+        <v>1.809925905343079</v>
       </c>
       <c r="C12">
-        <v>0.1020019091466793</v>
+        <v>0.02236297684790145</v>
       </c>
       <c r="D12">
-        <v>0.192828323812094</v>
+        <v>0.05222763200308123</v>
       </c>
       <c r="E12">
-        <v>0.01596957949706512</v>
+        <v>0.0622485264713255</v>
       </c>
       <c r="F12">
-        <v>11.46982284491827</v>
+        <v>8.668048006292452</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2409251547553595</v>
+        <v>0.2745040272891117</v>
       </c>
       <c r="K12">
-        <v>1.306908273949659</v>
+        <v>1.285047772409541</v>
       </c>
       <c r="L12">
-        <v>0.0660017578141705</v>
+        <v>0.2156648027483925</v>
       </c>
       <c r="M12">
-        <v>0.239001444014491</v>
+        <v>0.3677310434028129</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.496177368554072</v>
+        <v>1.809186788744427</v>
       </c>
       <c r="C13">
-        <v>0.1013520163905923</v>
+        <v>0.02223745008197398</v>
       </c>
       <c r="D13">
-        <v>0.1918078457728569</v>
+        <v>0.05196371470390204</v>
       </c>
       <c r="E13">
-        <v>0.01598396826680437</v>
+        <v>0.06226703261111677</v>
       </c>
       <c r="F13">
-        <v>11.42153350887435</v>
+        <v>8.654632986926231</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2402243200398573</v>
+        <v>0.2742970058709275</v>
       </c>
       <c r="K13">
-        <v>1.299652578227438</v>
+        <v>1.284229887052902</v>
       </c>
       <c r="L13">
-        <v>0.06583778471623702</v>
+        <v>0.2157610182575525</v>
       </c>
       <c r="M13">
-        <v>0.2378903706989668</v>
+        <v>0.3676943933480423</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.471546862159016</v>
+        <v>1.806809051271244</v>
       </c>
       <c r="C14">
-        <v>0.09924241746442419</v>
+        <v>0.02182857255445469</v>
       </c>
       <c r="D14">
-        <v>0.1884890349718944</v>
+        <v>0.05110293778835739</v>
       </c>
       <c r="E14">
-        <v>0.01603128850533908</v>
+        <v>0.06232776332654666</v>
       </c>
       <c r="F14">
-        <v>11.26448920571164</v>
+        <v>8.610898034335946</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2379450540841788</v>
+        <v>0.2736217434170598</v>
       </c>
       <c r="K14">
-        <v>1.276107575023929</v>
+        <v>1.281589555407578</v>
       </c>
       <c r="L14">
-        <v>0.06531005280462665</v>
+        <v>0.2160781413823329</v>
       </c>
       <c r="M14">
-        <v>0.2342879589754219</v>
+        <v>0.3675813420615803</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.456553985043854</v>
+        <v>1.805377729740343</v>
       </c>
       <c r="C15">
-        <v>0.09795761197071329</v>
+        <v>0.02157849967944969</v>
       </c>
       <c r="D15">
-        <v>0.1864630580666784</v>
+        <v>0.05057561888042983</v>
       </c>
       <c r="E15">
-        <v>0.01606057682227258</v>
+        <v>0.06236525341615629</v>
       </c>
       <c r="F15">
-        <v>11.16862425069519</v>
+        <v>8.584120073638132</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2365536770817513</v>
+        <v>0.2732080316884193</v>
       </c>
       <c r="K15">
-        <v>1.261774124346147</v>
+        <v>1.279992994633318</v>
       </c>
       <c r="L15">
-        <v>0.06499212434474799</v>
+        <v>0.2162749581443322</v>
       </c>
       <c r="M15">
-        <v>0.2320972764836959</v>
+        <v>0.3675170684862259</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.372010055953297</v>
+        <v>1.797560196240141</v>
       </c>
       <c r="C16">
-        <v>0.09070099593520808</v>
+        <v>0.02015111763634536</v>
       </c>
       <c r="D16">
-        <v>0.1749517763133923</v>
+        <v>0.04755261098614483</v>
       </c>
       <c r="E16">
-        <v>0.01623304635486278</v>
+        <v>0.06258455812071029</v>
       </c>
       <c r="F16">
-        <v>10.62402184347235</v>
+        <v>8.430831956774796</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2286485718473585</v>
+        <v>0.2708357231668472</v>
       </c>
       <c r="K16">
-        <v>1.180925585421164</v>
+        <v>1.271161071702835</v>
       </c>
       <c r="L16">
-        <v>0.06324892559501194</v>
+        <v>0.2174422440389208</v>
       </c>
       <c r="M16">
-        <v>0.2197763272583373</v>
+        <v>0.367224975339834</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.321301845802424</v>
+        <v>1.793107648253823</v>
       </c>
       <c r="C17">
-        <v>0.08633660187668113</v>
+        <v>0.01928044539636176</v>
       </c>
       <c r="D17">
-        <v>0.1679709893659123</v>
+        <v>0.04569694100281652</v>
       </c>
       <c r="E17">
-        <v>0.01634296307988459</v>
+        <v>0.06272308596978249</v>
       </c>
       <c r="F17">
-        <v>10.29387733773197</v>
+        <v>8.336939738166336</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2238555010379244</v>
+        <v>0.2693789978016383</v>
       </c>
       <c r="K17">
-        <v>1.132410317271194</v>
+        <v>1.266025869729731</v>
       </c>
       <c r="L17">
-        <v>0.06224680461437515</v>
+        <v>0.2181935255838994</v>
       </c>
       <c r="M17">
-        <v>0.2124145727888553</v>
+        <v>0.3671138112972123</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.292534649876814</v>
+        <v>1.790672767517009</v>
       </c>
       <c r="C18">
-        <v>0.0838556276519995</v>
+        <v>0.01878145171895085</v>
       </c>
       <c r="D18">
-        <v>0.1639828934720384</v>
+        <v>0.04462913738497321</v>
       </c>
       <c r="E18">
-        <v>0.0164076883791493</v>
+        <v>0.06280423360120091</v>
       </c>
       <c r="F18">
-        <v>10.10532654225796</v>
+        <v>8.282987687559597</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2211176934815597</v>
+        <v>0.268540593836029</v>
       </c>
       <c r="K18">
-        <v>1.104877416094723</v>
+        <v>1.263176101569115</v>
       </c>
       <c r="L18">
-        <v>0.06169401200968849</v>
+        <v>0.2186385846832337</v>
       </c>
       <c r="M18">
-        <v>0.2082483803275892</v>
+        <v>0.3670748729065636</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.282860688587078</v>
+        <v>1.789870014279728</v>
       </c>
       <c r="C19">
-        <v>0.08302039568117436</v>
+        <v>0.01861280571722546</v>
       </c>
       <c r="D19">
-        <v>0.16263699596945</v>
+        <v>0.04426751195423151</v>
       </c>
       <c r="E19">
-        <v>0.01642986095057664</v>
+        <v>0.06283196158678805</v>
       </c>
       <c r="F19">
-        <v>10.041706334465</v>
+        <v>8.264729329039227</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2201938339550367</v>
+        <v>0.2682566307675671</v>
       </c>
       <c r="K19">
-        <v>1.095616742219931</v>
+        <v>1.262229048526848</v>
       </c>
       <c r="L19">
-        <v>0.06151079773301404</v>
+        <v>0.2187914977585521</v>
       </c>
       <c r="M19">
-        <v>0.2068490927684365</v>
+        <v>0.3670659829731804</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.326657971560394</v>
+        <v>1.793568577179968</v>
       </c>
       <c r="C20">
-        <v>0.08679810527050336</v>
+        <v>0.01937294345663076</v>
       </c>
       <c r="D20">
-        <v>0.1687112455430224</v>
+        <v>0.04589452794135696</v>
       </c>
       <c r="E20">
-        <v>0.0163311064343814</v>
+        <v>0.0627081873690285</v>
       </c>
       <c r="F20">
-        <v>10.32888068341509</v>
+        <v>8.346929291914961</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2243637237628633</v>
+        <v>0.2695341234583708</v>
       </c>
       <c r="K20">
-        <v>1.137535802205861</v>
+        <v>1.266561769006785</v>
       </c>
       <c r="L20">
-        <v>0.06235101504267959</v>
+        <v>0.2181122111777256</v>
       </c>
       <c r="M20">
-        <v>0.2131911048635757</v>
+        <v>0.3671230575053173</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.478761680810209</v>
+        <v>1.807502216987132</v>
       </c>
       <c r="C21">
-        <v>0.0998605013117384</v>
+        <v>0.02194859114695191</v>
       </c>
       <c r="D21">
-        <v>0.1894623973615666</v>
+        <v>0.0513557827799076</v>
       </c>
       <c r="E21">
-        <v>0.0160173261491896</v>
+        <v>0.06230986466417443</v>
       </c>
       <c r="F21">
-        <v>11.31054761544056</v>
+        <v>8.623741760012706</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2386135314660436</v>
+        <v>0.2738201038255283</v>
       </c>
       <c r="K21">
-        <v>1.283004697143127</v>
+        <v>1.282360766500346</v>
       </c>
       <c r="L21">
-        <v>0.06546394419788015</v>
+        <v>0.2159844591649502</v>
       </c>
       <c r="M21">
-        <v>0.2353427349635133</v>
+        <v>0.3676135114715855</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.582305929676068</v>
+        <v>1.817732473885286</v>
       </c>
       <c r="C22">
-        <v>0.1087204026773776</v>
+        <v>0.02364867535325743</v>
       </c>
       <c r="D22">
-        <v>0.2033254410304437</v>
+        <v>0.05492184768695552</v>
       </c>
       <c r="E22">
-        <v>0.01582580793333932</v>
+        <v>0.0620625606677101</v>
       </c>
       <c r="F22">
-        <v>11.96654885273</v>
+        <v>8.805142461588105</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2481340218616737</v>
+        <v>0.2766169718090339</v>
       </c>
       <c r="K22">
-        <v>1.381968140994587</v>
+        <v>1.293613369808838</v>
       </c>
       <c r="L22">
-        <v>0.06773355566734551</v>
+        <v>0.2147088897313907</v>
       </c>
       <c r="M22">
-        <v>0.2505200930277098</v>
+        <v>0.368156660373792</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.526633487271255</v>
+        <v>1.812169519644755</v>
       </c>
       <c r="C23">
-        <v>0.1039589162654835</v>
+        <v>0.02273973809677443</v>
       </c>
       <c r="D23">
-        <v>0.1958958196239706</v>
+        <v>0.05301881345287995</v>
       </c>
       <c r="E23">
-        <v>0.01592677582740887</v>
+        <v>0.06219336313935209</v>
       </c>
       <c r="F23">
-        <v>11.61497885669297</v>
+        <v>8.708279776794427</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2430318073791895</v>
+        <v>0.275124597525938</v>
       </c>
       <c r="K23">
-        <v>1.328763115080875</v>
+        <v>1.287522712131221</v>
       </c>
       <c r="L23">
-        <v>0.06649940128150433</v>
+        <v>0.2153791687734241</v>
       </c>
       <c r="M23">
-        <v>0.2423507118714312</v>
+        <v>0.3678464030391417</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.32423527214209</v>
+        <v>1.793359802020206</v>
       </c>
       <c r="C24">
-        <v>0.08658937248328868</v>
+        <v>0.01933112021080774</v>
       </c>
       <c r="D24">
-        <v>0.168376497708735</v>
+        <v>0.04580520187117543</v>
       </c>
       <c r="E24">
-        <v>0.01633646205142814</v>
+        <v>0.0627149183343616</v>
       </c>
       <c r="F24">
-        <v>10.31305179240201</v>
+        <v>8.342412928184558</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2241339012504966</v>
+        <v>0.2694639940008301</v>
       </c>
       <c r="K24">
-        <v>1.135217457865281</v>
+        <v>1.266319169603491</v>
       </c>
       <c r="L24">
-        <v>0.06230382907305909</v>
+        <v>0.2181489324968737</v>
       </c>
       <c r="M24">
-        <v>0.2128398295734328</v>
+        <v>0.3671187995112781</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.120908764177869</v>
+        <v>1.777891274929857</v>
       </c>
       <c r="C25">
-        <v>0.06894767475291275</v>
+        <v>0.01572249727995967</v>
       </c>
       <c r="D25">
-        <v>0.1397005664949376</v>
+        <v>0.03800550785004475</v>
       </c>
       <c r="E25">
-        <v>0.0168358201800185</v>
+        <v>0.0633337461647776</v>
       </c>
       <c r="F25">
-        <v>8.958817429954252</v>
+        <v>7.94975031032422</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2044605589245947</v>
+        <v>0.2633373910600127</v>
       </c>
       <c r="K25">
-        <v>0.9404092879318569</v>
+        <v>1.247417350917459</v>
       </c>
       <c r="L25">
-        <v>0.05866969208339157</v>
+        <v>0.2216314970005442</v>
       </c>
       <c r="M25">
-        <v>0.1835700888686951</v>
+        <v>0.3672897833950692</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_26/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.770638372978169</v>
+        <v>0.9814323265995313</v>
       </c>
       <c r="C2">
-        <v>0.01311926495755245</v>
+        <v>0.05662153706722961</v>
       </c>
       <c r="D2">
-        <v>0.03223974428605914</v>
+        <v>0.1191762311485718</v>
       </c>
       <c r="E2">
-        <v>0.06383820745122026</v>
+        <v>0.01725228842278614</v>
       </c>
       <c r="F2">
-        <v>7.662150779775345</v>
+        <v>7.993232552692035</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2588048803499703</v>
+        <v>0.1904116356513299</v>
       </c>
       <c r="K2">
-        <v>1.23689735626985</v>
+        <v>0.806343630669943</v>
       </c>
       <c r="L2">
-        <v>0.2246228339345819</v>
+        <v>0.05664783728226652</v>
       </c>
       <c r="M2">
-        <v>0.3682373811667823</v>
+        <v>0.163796820206457</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.76829961054716</v>
+        <v>0.8921592152435665</v>
       </c>
       <c r="C3">
-        <v>0.01138622289428781</v>
+        <v>0.04856511882879744</v>
       </c>
       <c r="D3">
-        <v>0.02831459372056599</v>
+        <v>0.1055151626325497</v>
       </c>
       <c r="E3">
-        <v>0.06421076739119824</v>
+        <v>0.01756474225987903</v>
       </c>
       <c r="F3">
-        <v>7.468097427214133</v>
+        <v>7.353557743527631</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2557179444047435</v>
+        <v>0.181087722408428</v>
       </c>
       <c r="K3">
-        <v>1.231879661895704</v>
+        <v>0.720213027448807</v>
       </c>
       <c r="L3">
-        <v>0.2269173297750591</v>
+        <v>0.05563778392208008</v>
       </c>
       <c r="M3">
-        <v>0.3693921511879914</v>
+        <v>0.151324456020884</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.768133792704134</v>
+        <v>0.8396077783807527</v>
       </c>
       <c r="C4">
-        <v>0.01033676375450909</v>
+        <v>0.04373146348710577</v>
       </c>
       <c r="D4">
-        <v>0.02589476758404174</v>
+        <v>0.09721483957754629</v>
       </c>
       <c r="E4">
-        <v>0.06445473036819926</v>
+        <v>0.01777143385662416</v>
       </c>
       <c r="F4">
-        <v>7.349342984866155</v>
+        <v>6.966605590566843</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2538144995235854</v>
+        <v>0.1754381574586645</v>
       </c>
       <c r="K4">
-        <v>1.229838432415718</v>
+        <v>0.6693365447843007</v>
       </c>
       <c r="L4">
-        <v>0.2284582534628612</v>
+        <v>0.05518146322107143</v>
       </c>
       <c r="M4">
-        <v>0.3703540916250851</v>
+        <v>0.1440718240125456</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.768385646666843</v>
+        <v>0.8187174397169201</v>
       </c>
       <c r="C5">
-        <v>0.009912679052497708</v>
+        <v>0.04178561968528527</v>
       </c>
       <c r="D5">
-        <v>0.02490607137529111</v>
+        <v>0.09384968842174857</v>
       </c>
       <c r="E5">
-        <v>0.06455798277132851</v>
+        <v>0.01785938780897833</v>
       </c>
       <c r="F5">
-        <v>7.301045931885881</v>
+        <v>6.810185594332609</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2530367374710352</v>
+        <v>0.1731519045656071</v>
       </c>
       <c r="K5">
-        <v>1.229267871344064</v>
+        <v>0.6490653199364118</v>
       </c>
       <c r="L5">
-        <v>0.2291194510675361</v>
+        <v>0.05503484849809581</v>
       </c>
       <c r="M5">
-        <v>0.3708097158614514</v>
+        <v>0.141211211567672</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.768446760421568</v>
+        <v>0.8152790872941864</v>
       </c>
       <c r="C6">
-        <v>0.009842473273231178</v>
+        <v>0.04146383325937109</v>
       </c>
       <c r="D6">
-        <v>0.02474173812076685</v>
+        <v>0.09329182043664019</v>
       </c>
       <c r="E6">
-        <v>0.0645753597308194</v>
+        <v>0.01787421732337613</v>
       </c>
       <c r="F6">
-        <v>7.29303197494383</v>
+        <v>6.784283222786144</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2529074623055365</v>
+        <v>0.1727731575435385</v>
       </c>
       <c r="K6">
-        <v>1.229188904546945</v>
+        <v>0.6457259553528445</v>
       </c>
       <c r="L6">
-        <v>0.2292312524355289</v>
+        <v>0.0550128276577091</v>
       </c>
       <c r="M6">
-        <v>0.3708892156879564</v>
+        <v>0.1407417447301071</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.768135895918249</v>
+        <v>0.8393239748658061</v>
       </c>
       <c r="C7">
-        <v>0.01033103004449742</v>
+        <v>0.0437051300308724</v>
       </c>
       <c r="D7">
-        <v>0.02588144438318096</v>
+        <v>0.09716939194375129</v>
       </c>
       <c r="E7">
-        <v>0.06445610732175222</v>
+        <v>0.01777260495832111</v>
       </c>
       <c r="F7">
-        <v>7.348691247812411</v>
+        <v>6.964491176267785</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2538040189133071</v>
+        <v>0.1754072632551029</v>
       </c>
       <c r="K7">
-        <v>1.229829680041846</v>
+        <v>0.6690613469985323</v>
       </c>
       <c r="L7">
-        <v>0.2284670358861973</v>
+        <v>0.05517932899001821</v>
       </c>
       <c r="M7">
-        <v>0.3703599786753777</v>
+        <v>0.144032869488246</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.769568343775347</v>
+        <v>0.9501536133203956</v>
       </c>
       <c r="C8">
-        <v>0.01251861243876817</v>
+        <v>0.05381738833586525</v>
       </c>
       <c r="D8">
-        <v>0.03088829371017709</v>
+        <v>0.1144447420481356</v>
       </c>
       <c r="E8">
-        <v>0.06396351590999583</v>
+        <v>0.01735693696562191</v>
       </c>
       <c r="F8">
-        <v>7.595157307588323</v>
+        <v>7.771344376341005</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.257742134804225</v>
+        <v>0.1871792560428247</v>
       </c>
       <c r="K8">
-        <v>1.234951360355979</v>
+        <v>0.7762016349631722</v>
       </c>
       <c r="L8">
-        <v>0.2253865852761905</v>
+        <v>0.05626439132534244</v>
       </c>
       <c r="M8">
-        <v>0.3685830714677607</v>
+        <v>0.1594077623376187</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.782458746692413</v>
+        <v>1.18764632118868</v>
       </c>
       <c r="C9">
-        <v>0.01692939683604067</v>
+        <v>0.07477026742247972</v>
       </c>
       <c r="D9">
-        <v>0.04063595127189501</v>
+        <v>0.1492513313231001</v>
       </c>
       <c r="E9">
-        <v>0.06311773911260854</v>
+        <v>0.01665999551217778</v>
       </c>
       <c r="F9">
-        <v>8.081771553619518</v>
+        <v>9.409380499103492</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2654042491395501</v>
+        <v>0.2110089282653149</v>
       </c>
       <c r="K9">
-        <v>1.25325567135215</v>
+        <v>1.004412916803517</v>
       </c>
       <c r="L9">
-        <v>0.2203921392919597</v>
+        <v>0.05978534344596653</v>
       </c>
       <c r="M9">
-        <v>0.3671045329615481</v>
+        <v>0.1931272562087685</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.798085353570201</v>
+        <v>1.377852123176297</v>
       </c>
       <c r="C10">
-        <v>0.02025071311200577</v>
+        <v>0.09120317193794847</v>
       </c>
       <c r="D10">
-        <v>0.04776429543628069</v>
+        <v>0.175752192661534</v>
       </c>
       <c r="E10">
-        <v>0.06256895009657804</v>
+        <v>0.01622070840521639</v>
       </c>
       <c r="F10">
-        <v>8.4415528705741</v>
+        <v>10.66188314611151</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2710018749575198</v>
+        <v>0.2291981958704739</v>
       </c>
       <c r="K10">
-        <v>1.271761115055767</v>
+        <v>1.186513746505028</v>
       </c>
       <c r="L10">
-        <v>0.2173582705303687</v>
+        <v>0.06336655223083199</v>
       </c>
       <c r="M10">
-        <v>0.3672410474560159</v>
+        <v>0.2206258805257981</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.806533849416041</v>
+        <v>1.468674245411904</v>
       </c>
       <c r="C11">
-        <v>0.02178072871076608</v>
+        <v>0.09899629136502597</v>
       </c>
       <c r="D11">
-        <v>0.05100210241022296</v>
+        <v>0.1881012032834803</v>
       </c>
       <c r="E11">
-        <v>0.06233491532617963</v>
+        <v>0.01603687135411391</v>
       </c>
       <c r="F11">
-        <v>8.605776620533959</v>
+        <v>11.24613760731251</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2735426346901448</v>
+        <v>0.237678702789232</v>
       </c>
       <c r="K11">
-        <v>1.281283015418865</v>
+        <v>1.273361385242708</v>
       </c>
       <c r="L11">
-        <v>0.216115626335025</v>
+        <v>0.06524894188426344</v>
       </c>
       <c r="M11">
-        <v>0.3675687559826564</v>
+        <v>0.2338680995375775</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.809925905343079</v>
+        <v>1.503768105273764</v>
       </c>
       <c r="C12">
-        <v>0.02236297684790145</v>
+        <v>0.1020019091465798</v>
       </c>
       <c r="D12">
-        <v>0.05222763200308123</v>
+        <v>0.1928283238127193</v>
       </c>
       <c r="E12">
-        <v>0.0622485264713255</v>
+        <v>0.01596957949709443</v>
       </c>
       <c r="F12">
-        <v>8.668048006292452</v>
+        <v>11.46982284491833</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2745040272891117</v>
+        <v>0.2409251547555726</v>
       </c>
       <c r="K12">
-        <v>1.285047772409541</v>
+        <v>1.306908273949716</v>
       </c>
       <c r="L12">
-        <v>0.2156648027483925</v>
+        <v>0.06600175781426287</v>
       </c>
       <c r="M12">
-        <v>0.3677310434028129</v>
+        <v>0.2390014440144448</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.809186788744427</v>
+        <v>1.496177368553731</v>
       </c>
       <c r="C13">
-        <v>0.02223745008197398</v>
+        <v>0.1013520163890576</v>
       </c>
       <c r="D13">
-        <v>0.05196371470390204</v>
+        <v>0.1918078457727717</v>
       </c>
       <c r="E13">
-        <v>0.06226703261111677</v>
+        <v>0.01598396826677684</v>
       </c>
       <c r="F13">
-        <v>8.654632986926231</v>
+        <v>11.42153350887452</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2742970058709275</v>
+        <v>0.2402243200400633</v>
       </c>
       <c r="K13">
-        <v>1.284229887052902</v>
+        <v>1.299652578227409</v>
       </c>
       <c r="L13">
-        <v>0.2157610182575525</v>
+        <v>0.06583778471632229</v>
       </c>
       <c r="M13">
-        <v>0.3676943933480423</v>
+        <v>0.2378903706989668</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.806809051271244</v>
+        <v>1.471546862158931</v>
       </c>
       <c r="C14">
-        <v>0.02182857255445469</v>
+        <v>0.09924241746487894</v>
       </c>
       <c r="D14">
-        <v>0.05110293778835739</v>
+        <v>0.1884890349720934</v>
       </c>
       <c r="E14">
-        <v>0.06232776332654666</v>
+        <v>0.01603128850544611</v>
       </c>
       <c r="F14">
-        <v>8.610898034335946</v>
+        <v>11.2644892057117</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2736217434170598</v>
+        <v>0.2379450540840935</v>
       </c>
       <c r="K14">
-        <v>1.281589555407578</v>
+        <v>1.2761075750239</v>
       </c>
       <c r="L14">
-        <v>0.2160781413823329</v>
+        <v>0.0653100528045627</v>
       </c>
       <c r="M14">
-        <v>0.3675813420615803</v>
+        <v>0.2342879589754041</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.805377729740343</v>
+        <v>1.456553985043399</v>
       </c>
       <c r="C15">
-        <v>0.02157849967944969</v>
+        <v>0.09795761197014485</v>
       </c>
       <c r="D15">
-        <v>0.05057561888042983</v>
+        <v>0.1864630580667921</v>
       </c>
       <c r="E15">
-        <v>0.06236525341615629</v>
+        <v>0.01606057682221884</v>
       </c>
       <c r="F15">
-        <v>8.584120073638132</v>
+        <v>11.16862425069542</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2732080316884193</v>
+        <v>0.2365536770815879</v>
       </c>
       <c r="K15">
-        <v>1.279992994633318</v>
+        <v>1.261774124346232</v>
       </c>
       <c r="L15">
-        <v>0.2162749581443322</v>
+        <v>0.06499212434482615</v>
       </c>
       <c r="M15">
-        <v>0.3675170684862259</v>
+        <v>0.2320972764836604</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.797560196240141</v>
+        <v>1.372010055953268</v>
       </c>
       <c r="C16">
-        <v>0.02015111763634536</v>
+        <v>0.09070099593515124</v>
       </c>
       <c r="D16">
-        <v>0.04755261098614483</v>
+        <v>0.1749517763128665</v>
       </c>
       <c r="E16">
-        <v>0.06258455812071029</v>
+        <v>0.01623304635483969</v>
       </c>
       <c r="F16">
-        <v>8.430831956774796</v>
+        <v>10.62402184347249</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2708357231668472</v>
+        <v>0.2286485718474864</v>
       </c>
       <c r="K16">
-        <v>1.271161071702835</v>
+        <v>1.180925585421051</v>
       </c>
       <c r="L16">
-        <v>0.2174422440389208</v>
+        <v>0.06324892559511142</v>
       </c>
       <c r="M16">
-        <v>0.367224975339834</v>
+        <v>0.2197763272583302</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.793107648253823</v>
+        <v>1.321301845802537</v>
       </c>
       <c r="C17">
-        <v>0.01928044539636176</v>
+        <v>0.08633660187665271</v>
       </c>
       <c r="D17">
-        <v>0.04569694100281652</v>
+        <v>0.1679709893658412</v>
       </c>
       <c r="E17">
-        <v>0.06272308596978249</v>
+        <v>0.01634296308003691</v>
       </c>
       <c r="F17">
-        <v>8.336939738166336</v>
+        <v>10.29387733773208</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2693789978016383</v>
+        <v>0.2238555010381234</v>
       </c>
       <c r="K17">
-        <v>1.266025869729731</v>
+        <v>1.132410317271109</v>
       </c>
       <c r="L17">
-        <v>0.2181935255838994</v>
+        <v>0.06224680461424015</v>
       </c>
       <c r="M17">
-        <v>0.3671138112972123</v>
+        <v>0.2124145727888731</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.790672767517009</v>
+        <v>1.292534649877126</v>
       </c>
       <c r="C18">
-        <v>0.01878145171895085</v>
+        <v>0.0838556276525253</v>
       </c>
       <c r="D18">
-        <v>0.04462913738497321</v>
+        <v>0.1639828934718679</v>
       </c>
       <c r="E18">
-        <v>0.06280423360120091</v>
+        <v>0.0164076883791715</v>
       </c>
       <c r="F18">
-        <v>8.282987687559597</v>
+        <v>10.10532654225787</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.268540593836029</v>
+        <v>0.2211176934815597</v>
       </c>
       <c r="K18">
-        <v>1.263176101569115</v>
+        <v>1.104877416094695</v>
       </c>
       <c r="L18">
-        <v>0.2186385846832337</v>
+        <v>0.06169401200968849</v>
       </c>
       <c r="M18">
-        <v>0.3670748729065636</v>
+        <v>0.2082483803275856</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.789870014279728</v>
+        <v>1.282860688586766</v>
       </c>
       <c r="C19">
-        <v>0.01861280571722546</v>
+        <v>0.08302039568116015</v>
       </c>
       <c r="D19">
-        <v>0.04426751195423151</v>
+        <v>0.1626369959696632</v>
       </c>
       <c r="E19">
-        <v>0.06283196158678805</v>
+        <v>0.01642986095050603</v>
       </c>
       <c r="F19">
-        <v>8.264729329039227</v>
+        <v>10.041706334465</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2682566307675671</v>
+        <v>0.2201938339548448</v>
       </c>
       <c r="K19">
-        <v>1.262229048526848</v>
+        <v>1.095616742219931</v>
       </c>
       <c r="L19">
-        <v>0.2187914977585521</v>
+        <v>0.06151079773283641</v>
       </c>
       <c r="M19">
-        <v>0.3670659829731804</v>
+        <v>0.2068490927684401</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.793568577179968</v>
+        <v>1.326657971560621</v>
       </c>
       <c r="C20">
-        <v>0.01937294345663076</v>
+        <v>0.08679810527097231</v>
       </c>
       <c r="D20">
-        <v>0.04589452794135696</v>
+        <v>0.1687112455430224</v>
       </c>
       <c r="E20">
-        <v>0.0627081873690285</v>
+        <v>0.01633110643432545</v>
       </c>
       <c r="F20">
-        <v>8.346929291914961</v>
+        <v>10.32888068341509</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2695341234583708</v>
+        <v>0.2243637237630196</v>
       </c>
       <c r="K20">
-        <v>1.266561769006785</v>
+        <v>1.137535802205718</v>
       </c>
       <c r="L20">
-        <v>0.2181122111777256</v>
+        <v>0.0623510150428217</v>
       </c>
       <c r="M20">
-        <v>0.3671230575053173</v>
+        <v>0.2131911048635722</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.807502216987132</v>
+        <v>1.478761680810408</v>
       </c>
       <c r="C21">
-        <v>0.02194859114695191</v>
+        <v>0.0998605013121221</v>
       </c>
       <c r="D21">
-        <v>0.0513557827799076</v>
+        <v>0.1894623973614387</v>
       </c>
       <c r="E21">
-        <v>0.06230986466417443</v>
+        <v>0.01601732614913631</v>
       </c>
       <c r="F21">
-        <v>8.623741760012706</v>
+        <v>11.31054761544073</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2738201038255283</v>
+        <v>0.2386135314661573</v>
       </c>
       <c r="K21">
-        <v>1.282360766500346</v>
+        <v>1.283004697143326</v>
       </c>
       <c r="L21">
-        <v>0.2159844591649502</v>
+        <v>0.06546394419785884</v>
       </c>
       <c r="M21">
-        <v>0.3676135114715855</v>
+        <v>0.2353427349635453</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.817732473885286</v>
+        <v>1.582305929676096</v>
       </c>
       <c r="C22">
-        <v>0.02364867535325743</v>
+        <v>0.1087204026773065</v>
       </c>
       <c r="D22">
-        <v>0.05492184768695552</v>
+        <v>0.2033254410304437</v>
       </c>
       <c r="E22">
-        <v>0.0620625606677101</v>
+        <v>0.01582580793333044</v>
       </c>
       <c r="F22">
-        <v>8.805142461588105</v>
+        <v>11.96654885272994</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2766169718090339</v>
+        <v>0.2481340218616381</v>
       </c>
       <c r="K22">
-        <v>1.293613369808838</v>
+        <v>1.38196814099453</v>
       </c>
       <c r="L22">
-        <v>0.2147088897313907</v>
+        <v>0.06773355566716788</v>
       </c>
       <c r="M22">
-        <v>0.368156660373792</v>
+        <v>0.2505200930276743</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.812169519644755</v>
+        <v>1.526633487271027</v>
       </c>
       <c r="C23">
-        <v>0.02273973809677443</v>
+        <v>0.1039589162649577</v>
       </c>
       <c r="D23">
-        <v>0.05301881345287995</v>
+        <v>0.1958958196232032</v>
       </c>
       <c r="E23">
-        <v>0.06219336313935209</v>
+        <v>0.01592677582740487</v>
       </c>
       <c r="F23">
-        <v>8.708279776794427</v>
+        <v>11.61497885669303</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.275124597525938</v>
+        <v>0.2430318073792321</v>
       </c>
       <c r="K23">
-        <v>1.287522712131221</v>
+        <v>1.32876311508096</v>
       </c>
       <c r="L23">
-        <v>0.2153791687734241</v>
+        <v>0.0664994012813267</v>
       </c>
       <c r="M23">
-        <v>0.3678464030391417</v>
+        <v>0.2423507118714383</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.793359802020206</v>
+        <v>1.324235272141806</v>
       </c>
       <c r="C24">
-        <v>0.01933112021080774</v>
+        <v>0.08658937248419818</v>
       </c>
       <c r="D24">
-        <v>0.04580520187117543</v>
+        <v>0.1683764977087208</v>
       </c>
       <c r="E24">
-        <v>0.0627149183343616</v>
+        <v>0.01633646205142236</v>
       </c>
       <c r="F24">
-        <v>8.342412928184558</v>
+        <v>10.31305179240201</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2694639940008301</v>
+        <v>0.2241339012505819</v>
       </c>
       <c r="K24">
-        <v>1.266319169603491</v>
+        <v>1.135217457865394</v>
       </c>
       <c r="L24">
-        <v>0.2181489324968737</v>
+        <v>0.06230382907315146</v>
       </c>
       <c r="M24">
-        <v>0.3671187995112781</v>
+        <v>0.2128398295734257</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.777891274929857</v>
+        <v>1.120908764178097</v>
       </c>
       <c r="C25">
-        <v>0.01572249727995967</v>
+        <v>0.06894767475280617</v>
       </c>
       <c r="D25">
-        <v>0.03800550785004475</v>
+        <v>0.1397005664945965</v>
       </c>
       <c r="E25">
-        <v>0.0633337461647776</v>
+        <v>0.01683582017993768</v>
       </c>
       <c r="F25">
-        <v>7.94975031032422</v>
+        <v>8.958817429954422</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2633373910600127</v>
+        <v>0.2044605589244171</v>
       </c>
       <c r="K25">
-        <v>1.247417350917459</v>
+        <v>0.940409287931999</v>
       </c>
       <c r="L25">
-        <v>0.2216314970005442</v>
+        <v>0.05866969208343775</v>
       </c>
       <c r="M25">
-        <v>0.3672897833950692</v>
+        <v>0.1835700888686844</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9814323265995313</v>
+        <v>4.051888338293111</v>
       </c>
       <c r="C2">
-        <v>0.05662153706722961</v>
+        <v>0.8964300750320717</v>
       </c>
       <c r="D2">
-        <v>0.1191762311485718</v>
+        <v>0.003883359019154042</v>
       </c>
       <c r="E2">
-        <v>0.01725228842278614</v>
+        <v>0.01768904786500924</v>
       </c>
       <c r="F2">
-        <v>7.993232552692035</v>
+        <v>2.39317696527489</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.008733946369066437</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.008804235362433577</v>
       </c>
       <c r="J2">
-        <v>0.1904116356513299</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0.806343630669943</v>
+        <v>1.225926867810237</v>
       </c>
       <c r="L2">
-        <v>0.05664783728226652</v>
+        <v>0.04549053945672377</v>
       </c>
       <c r="M2">
-        <v>0.163796820206457</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3777913475350374</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>1.095306190905642</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8921592152435665</v>
+        <v>3.549280506645687</v>
       </c>
       <c r="C3">
-        <v>0.04856511882879744</v>
+        <v>0.7773999672154162</v>
       </c>
       <c r="D3">
-        <v>0.1055151626325497</v>
+        <v>0.003177606684696244</v>
       </c>
       <c r="E3">
-        <v>0.01756474225987903</v>
+        <v>0.01579386132754867</v>
       </c>
       <c r="F3">
-        <v>7.353557743527631</v>
+        <v>2.211266085153184</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01316896592678007</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01328219786428297</v>
       </c>
       <c r="J3">
-        <v>0.181087722408428</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0.720213027448807</v>
+        <v>1.152508651431582</v>
       </c>
       <c r="L3">
-        <v>0.05563778392208008</v>
+        <v>0.04130003471312627</v>
       </c>
       <c r="M3">
-        <v>0.151324456020884</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3341430944105923</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>1.126523408165532</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8396077783807527</v>
+        <v>3.2409753944454</v>
       </c>
       <c r="C4">
-        <v>0.04373146348710577</v>
+        <v>0.7051469152943639</v>
       </c>
       <c r="D4">
-        <v>0.09721483957754629</v>
+        <v>0.002764577032325022</v>
       </c>
       <c r="E4">
-        <v>0.01777143385662416</v>
+        <v>0.01465645150259676</v>
       </c>
       <c r="F4">
-        <v>6.966605590566843</v>
+        <v>2.100603466146438</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0164458475518221</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01664125819356599</v>
       </c>
       <c r="J4">
-        <v>0.1754381574586645</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0.6693365447843007</v>
+        <v>1.107761290781433</v>
       </c>
       <c r="L4">
-        <v>0.05518146322107143</v>
+        <v>0.03874498308953545</v>
       </c>
       <c r="M4">
-        <v>0.1440718240125456</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.3074871960077843</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>1.146004522055826</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8187174397169201</v>
+        <v>3.11297500543543</v>
       </c>
       <c r="C5">
-        <v>0.04178561968528527</v>
+        <v>0.6761940899380079</v>
       </c>
       <c r="D5">
-        <v>0.09384968842174857</v>
+        <v>0.002584822244363849</v>
       </c>
       <c r="E5">
-        <v>0.01785938780897833</v>
+        <v>0.01419554373373155</v>
       </c>
       <c r="F5">
-        <v>6.810185594332609</v>
+        <v>2.053705841062367</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01792434000268139</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01825236503160355</v>
       </c>
       <c r="J5">
-        <v>0.1731519045656071</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0.6490653199364118</v>
+        <v>1.088251394737625</v>
       </c>
       <c r="L5">
-        <v>0.05503484849809581</v>
+        <v>0.03768193443062895</v>
       </c>
       <c r="M5">
-        <v>0.141211211567672</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2967776529144146</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>1.153397047740199</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8152790872941864</v>
+        <v>3.088794678135173</v>
       </c>
       <c r="C6">
-        <v>0.04146383325937109</v>
+        <v>0.6717728715351257</v>
       </c>
       <c r="D6">
-        <v>0.09329182043664019</v>
+        <v>0.002536177075040058</v>
       </c>
       <c r="E6">
-        <v>0.01787421732337613</v>
+        <v>0.01411610345576497</v>
       </c>
       <c r="F6">
-        <v>6.784283222786144</v>
+        <v>2.043452812282069</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01819091440652165</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01865418704630439</v>
       </c>
       <c r="J6">
-        <v>0.1727731575435385</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0.6457259553528445</v>
+        <v>1.08337262338874</v>
       </c>
       <c r="L6">
-        <v>0.0550128276577091</v>
+        <v>0.0374760274515431</v>
       </c>
       <c r="M6">
-        <v>0.1407417447301071</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2951512780191621</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>1.153873965883953</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8393239748658061</v>
+        <v>3.231223032022626</v>
       </c>
       <c r="C7">
-        <v>0.0437051300308724</v>
+        <v>0.7057840543881184</v>
       </c>
       <c r="D7">
-        <v>0.09716939194375129</v>
+        <v>0.002709701254886454</v>
       </c>
       <c r="E7">
-        <v>0.01777260495832111</v>
+        <v>0.0146414129122362</v>
       </c>
       <c r="F7">
-        <v>6.964491176267785</v>
+        <v>2.093190394668909</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01649916562691034</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01698529333179977</v>
       </c>
       <c r="J7">
-        <v>0.1754072632551029</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0.6690613469985323</v>
+        <v>1.103004089474595</v>
       </c>
       <c r="L7">
-        <v>0.05517932899001821</v>
+        <v>0.03864972751807638</v>
       </c>
       <c r="M7">
-        <v>0.144032869488246</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.3077541016070455</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>1.144057705960222</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9501536133203956</v>
+        <v>3.867732014446347</v>
       </c>
       <c r="C8">
-        <v>0.05381738833586525</v>
+        <v>0.8565670895031019</v>
       </c>
       <c r="D8">
-        <v>0.1144447420481356</v>
+        <v>0.003564721435198592</v>
       </c>
       <c r="E8">
-        <v>0.01735693696562191</v>
+        <v>0.01701707010033798</v>
       </c>
       <c r="F8">
-        <v>7.771344376341005</v>
+        <v>2.321203497965215</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01017803185970739</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01059131334049024</v>
       </c>
       <c r="J8">
-        <v>0.1871792560428247</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0.7762016349631722</v>
+        <v>1.194564815415056</v>
       </c>
       <c r="L8">
-        <v>0.05626439132534244</v>
+        <v>0.04393159531479718</v>
       </c>
       <c r="M8">
-        <v>0.1594077623376187</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3632568937926095</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>1.103371436933603</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.18764632118868</v>
+        <v>5.135270271573859</v>
       </c>
       <c r="C9">
-        <v>0.07477026742247972</v>
+        <v>1.158236719153592</v>
       </c>
       <c r="D9">
-        <v>0.1492513313231001</v>
+        <v>0.005541270664361164</v>
       </c>
       <c r="E9">
-        <v>0.01665999551217778</v>
+        <v>0.02196844156824651</v>
       </c>
       <c r="F9">
-        <v>9.409380499103492</v>
+        <v>2.790429325386427</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.002470235623809547</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.002805132199497073</v>
       </c>
       <c r="J9">
-        <v>0.2110089282653149</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>1.004412916803517</v>
+        <v>1.385540633001497</v>
       </c>
       <c r="L9">
-        <v>0.05978534344596653</v>
+        <v>0.05468665011977158</v>
       </c>
       <c r="M9">
-        <v>0.1931272562087685</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4727903087658945</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>1.029837720326299</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.377852123176297</v>
+        <v>6.030607434409717</v>
       </c>
       <c r="C10">
-        <v>0.09120317193794847</v>
+        <v>1.381763054341263</v>
       </c>
       <c r="D10">
-        <v>0.175752192661534</v>
+        <v>0.007253570304150969</v>
       </c>
       <c r="E10">
-        <v>0.01622070840521639</v>
+        <v>0.02571191162662301</v>
       </c>
       <c r="F10">
-        <v>10.66188314611151</v>
+        <v>3.101064801890601</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0004235888405408339</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.000991130883987168</v>
       </c>
       <c r="J10">
-        <v>0.2291981958704739</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>1.186513746505028</v>
+        <v>1.506340311583955</v>
       </c>
       <c r="L10">
-        <v>0.06336655223083199</v>
+        <v>0.06175887149007941</v>
       </c>
       <c r="M10">
-        <v>0.2206258805257981</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5408658884907425</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.9689949461695093</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.468674245411904</v>
+        <v>6.09103389639688</v>
       </c>
       <c r="C11">
-        <v>0.09899629136502597</v>
+        <v>1.440460183316645</v>
       </c>
       <c r="D11">
-        <v>0.1881012032834803</v>
+        <v>0.008883665908337335</v>
       </c>
       <c r="E11">
-        <v>0.01603687135411391</v>
+        <v>0.0277881527759134</v>
       </c>
       <c r="F11">
-        <v>11.24613760731251</v>
+        <v>2.89703113965794</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01888988099750222</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.00143313487197716</v>
       </c>
       <c r="J11">
-        <v>0.237678702789232</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>1.273361385242708</v>
+        <v>1.381684318959955</v>
       </c>
       <c r="L11">
-        <v>0.06524894188426344</v>
+        <v>0.06028796586412577</v>
       </c>
       <c r="M11">
-        <v>0.2338680995375775</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4568990525027345</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.8814166519183466</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.503768105273764</v>
+        <v>5.961693151385418</v>
       </c>
       <c r="C12">
-        <v>0.1020019091465798</v>
+        <v>1.439691321747034</v>
       </c>
       <c r="D12">
-        <v>0.1928283238127193</v>
+        <v>0.01003052196536913</v>
       </c>
       <c r="E12">
-        <v>0.01596957949709443</v>
+        <v>0.03105890760152796</v>
       </c>
       <c r="F12">
-        <v>11.46982284491833</v>
+        <v>2.674340972793786</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05760343619635933</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001432546344511287</v>
       </c>
       <c r="J12">
-        <v>0.2409251547555726</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>1.306908273949716</v>
+        <v>1.26190373840376</v>
       </c>
       <c r="L12">
-        <v>0.06600175781426287</v>
+        <v>0.06419838367326847</v>
       </c>
       <c r="M12">
-        <v>0.2390014440144448</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3777873159467902</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.8360322577698813</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.496177368553731</v>
+        <v>5.666958059105184</v>
       </c>
       <c r="C13">
-        <v>0.1013520163890576</v>
+        <v>1.394467214676922</v>
       </c>
       <c r="D13">
-        <v>0.1918078457727717</v>
+        <v>0.01073795864443028</v>
       </c>
       <c r="E13">
-        <v>0.01598396826677684</v>
+        <v>0.03532118859277489</v>
       </c>
       <c r="F13">
-        <v>11.42153350887452</v>
+        <v>2.41460769761926</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1135499137459135</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001450125754925757</v>
       </c>
       <c r="J13">
-        <v>0.2402243200400633</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>1.299652578227409</v>
+        <v>1.132276334388123</v>
       </c>
       <c r="L13">
-        <v>0.06583778471632229</v>
+        <v>0.07217832849942951</v>
       </c>
       <c r="M13">
-        <v>0.2378903706989668</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2991787041269163</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.8165485531570877</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.471546862158931</v>
+        <v>5.385378395753094</v>
       </c>
       <c r="C14">
-        <v>0.09924241746487894</v>
+        <v>1.343295371183501</v>
       </c>
       <c r="D14">
-        <v>0.1884890349720934</v>
+        <v>0.01100842590811624</v>
       </c>
       <c r="E14">
-        <v>0.01603128850544611</v>
+        <v>0.03900853164295981</v>
       </c>
       <c r="F14">
-        <v>11.2644892057117</v>
+        <v>2.216902309190914</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1631740652780849</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00165514544051959</v>
       </c>
       <c r="J14">
-        <v>0.2379450540840935</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>1.2761075750239</v>
+        <v>1.037416609075954</v>
       </c>
       <c r="L14">
-        <v>0.0653100528045627</v>
+        <v>0.0803970135406189</v>
       </c>
       <c r="M14">
-        <v>0.2342879589754041</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2460235217413498</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.815865743662882</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.456553985043399</v>
+        <v>5.279626141161032</v>
       </c>
       <c r="C15">
-        <v>0.09795761197014485</v>
+        <v>1.322020469200311</v>
       </c>
       <c r="D15">
-        <v>0.1864630580667921</v>
+        <v>0.01093948088416852</v>
       </c>
       <c r="E15">
-        <v>0.01606057682221884</v>
+        <v>0.03979686693665663</v>
       </c>
       <c r="F15">
-        <v>11.16862425069542</v>
+        <v>2.158541783271858</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1758331393833572</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001883214172819336</v>
       </c>
       <c r="J15">
-        <v>0.2365536770815879</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>1.261774124346232</v>
+        <v>1.01054079110996</v>
       </c>
       <c r="L15">
-        <v>0.06499212434482615</v>
+        <v>0.0824171081646341</v>
       </c>
       <c r="M15">
-        <v>0.2320972764836604</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2325597904165733</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.8193795646361526</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.372010055953268</v>
+        <v>4.956986373347092</v>
       </c>
       <c r="C16">
-        <v>0.09070099593515124</v>
+        <v>1.235705793874786</v>
       </c>
       <c r="D16">
-        <v>0.1749517763128665</v>
+        <v>0.009902986262876112</v>
       </c>
       <c r="E16">
-        <v>0.01623304635483969</v>
+        <v>0.03710490488377793</v>
       </c>
       <c r="F16">
-        <v>10.62402184347249</v>
+        <v>2.079224661570777</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1639762083067353</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002698917896291064</v>
       </c>
       <c r="J16">
-        <v>0.2286485718474864</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>1.180925585421051</v>
+        <v>0.9850134322760908</v>
       </c>
       <c r="L16">
-        <v>0.06324892559511142</v>
+        <v>0.07748961715623537</v>
       </c>
       <c r="M16">
-        <v>0.2197763272583302</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2222040101399188</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.8465269384353862</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.321301845802537</v>
+        <v>4.857949029437805</v>
       </c>
       <c r="C17">
-        <v>0.08633660187665271</v>
+        <v>1.196923905725157</v>
       </c>
       <c r="D17">
-        <v>0.1679709893658412</v>
+        <v>0.008984556001648158</v>
       </c>
       <c r="E17">
-        <v>0.01634296308003691</v>
+        <v>0.0329240852780508</v>
       </c>
       <c r="F17">
-        <v>10.29387733773208</v>
+        <v>2.121768634714229</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.12677342967703</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.003272368620578447</v>
       </c>
       <c r="J17">
-        <v>0.2238555010381234</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>1.132410317271109</v>
+        <v>1.014816227186706</v>
       </c>
       <c r="L17">
-        <v>0.06224680461424015</v>
+        <v>0.06881627131751955</v>
       </c>
       <c r="M17">
-        <v>0.2124145727888731</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2413974995288726</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.8669781480981249</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.292534649877126</v>
+        <v>4.945241420517902</v>
       </c>
       <c r="C18">
-        <v>0.0838556276525253</v>
+        <v>1.192959676734745</v>
       </c>
       <c r="D18">
-        <v>0.1639828934718679</v>
+        <v>0.008126225411871246</v>
       </c>
       <c r="E18">
-        <v>0.0164076883791715</v>
+        <v>0.02806121528884642</v>
       </c>
       <c r="F18">
-        <v>10.10532654225787</v>
+        <v>2.282028722695529</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07404073790949184</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.003137780477649343</v>
       </c>
       <c r="J18">
-        <v>0.2211176934815597</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>1.104877416094695</v>
+        <v>1.101153210170907</v>
       </c>
       <c r="L18">
-        <v>0.06169401200968849</v>
+        <v>0.05897410977413742</v>
       </c>
       <c r="M18">
-        <v>0.2082483803275856</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2916575988018479</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.8907107601131665</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.282860688586766</v>
+        <v>5.162104991919648</v>
       </c>
       <c r="C19">
-        <v>0.08302039568116015</v>
+        <v>1.21897849974755</v>
       </c>
       <c r="D19">
-        <v>0.1626369959696632</v>
+        <v>0.007263490475850176</v>
       </c>
       <c r="E19">
-        <v>0.01642986095050603</v>
+        <v>0.02455876619574937</v>
       </c>
       <c r="F19">
-        <v>10.041706334465</v>
+        <v>2.521122121374432</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02835557944790423</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002968693138669209</v>
       </c>
       <c r="J19">
-        <v>0.2201938339548448</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>1.095616742219931</v>
+        <v>1.224132636303054</v>
       </c>
       <c r="L19">
-        <v>0.06151079773283641</v>
+        <v>0.05353833000982</v>
       </c>
       <c r="M19">
-        <v>0.2068490927684401</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3699548136580404</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.923343852300885</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.326657971560621</v>
+        <v>5.767297744932876</v>
       </c>
       <c r="C20">
-        <v>0.08679810527097231</v>
+        <v>1.325581837155255</v>
       </c>
       <c r="D20">
-        <v>0.1687112455430224</v>
+        <v>0.006621187211623081</v>
       </c>
       <c r="E20">
-        <v>0.01633110643432545</v>
+        <v>0.02466304594435142</v>
       </c>
       <c r="F20">
-        <v>10.32888068341509</v>
+        <v>2.995822109067063</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0007296210622791399</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002020966561357973</v>
       </c>
       <c r="J20">
-        <v>0.2243637237630196</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>1.137535802205718</v>
+        <v>1.459422616194601</v>
       </c>
       <c r="L20">
-        <v>0.0623510150428217</v>
+        <v>0.05956574348600974</v>
       </c>
       <c r="M20">
-        <v>0.2131911048635722</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.5236378565193718</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.9787895013608576</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.478761680810408</v>
+        <v>6.521906906511163</v>
       </c>
       <c r="C21">
-        <v>0.0998605013121221</v>
+        <v>1.507222539004715</v>
       </c>
       <c r="D21">
-        <v>0.1894623973614387</v>
+        <v>0.007905644676155177</v>
       </c>
       <c r="E21">
-        <v>0.01601732614913631</v>
+        <v>0.02790999490749468</v>
       </c>
       <c r="F21">
-        <v>11.31054761544073</v>
+        <v>3.302879693556861</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.305704129350715E-05</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001742347249434673</v>
       </c>
       <c r="J21">
-        <v>0.2386135314661573</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>1.283004697143326</v>
+        <v>1.587873288148941</v>
       </c>
       <c r="L21">
-        <v>0.06546394419785884</v>
+        <v>0.06688706074605744</v>
       </c>
       <c r="M21">
-        <v>0.2353427349635453</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5976598639878148</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.9464029089636625</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.582305929676096</v>
+        <v>7.009190906394963</v>
       </c>
       <c r="C22">
-        <v>0.1087204026773065</v>
+        <v>1.623780000542354</v>
       </c>
       <c r="D22">
-        <v>0.2033254410304437</v>
+        <v>0.008921070052299029</v>
       </c>
       <c r="E22">
-        <v>0.01582580793333044</v>
+        <v>0.03004907925773559</v>
       </c>
       <c r="F22">
-        <v>11.96654885272994</v>
+        <v>3.495094930668643</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0004520378262387048</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002157447469704366</v>
       </c>
       <c r="J22">
-        <v>0.2481340218616381</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>1.38196814099453</v>
+        <v>1.668373559587565</v>
       </c>
       <c r="L22">
-        <v>0.06773355566716788</v>
+        <v>0.07134652126256924</v>
       </c>
       <c r="M22">
-        <v>0.2505200930276743</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6387991394760206</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.924072617027683</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.526633487271027</v>
+        <v>6.75887633167099</v>
       </c>
       <c r="C23">
-        <v>0.1039589162649577</v>
+        <v>1.560159431921647</v>
       </c>
       <c r="D23">
-        <v>0.1958958196232032</v>
+        <v>0.008436824780304164</v>
       </c>
       <c r="E23">
-        <v>0.01592677582740487</v>
+        <v>0.02891200501539637</v>
       </c>
       <c r="F23">
-        <v>11.61497885669303</v>
+        <v>3.400427684070223</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0001440174207418821</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001555498952203749</v>
       </c>
       <c r="J23">
-        <v>0.2430318073792321</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>1.32876311508096</v>
+        <v>1.630698281503697</v>
       </c>
       <c r="L23">
-        <v>0.0664994012813267</v>
+        <v>0.06905937380698113</v>
       </c>
       <c r="M23">
-        <v>0.2423507118714383</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.6163031141771427</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.9380811223057606</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.324235272141806</v>
+        <v>5.800367828271817</v>
       </c>
       <c r="C24">
-        <v>0.08658937248419818</v>
+        <v>1.324898142447296</v>
       </c>
       <c r="D24">
-        <v>0.1683764977087208</v>
+        <v>0.006623748210431657</v>
       </c>
       <c r="E24">
-        <v>0.01633646205142236</v>
+        <v>0.02475933819094656</v>
       </c>
       <c r="F24">
-        <v>10.31305179240201</v>
+        <v>3.034282925151018</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0005643397237515835</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001499772023522361</v>
       </c>
       <c r="J24">
-        <v>0.2241339012505819</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>1.135217457865394</v>
+        <v>1.481610968236708</v>
       </c>
       <c r="L24">
-        <v>0.06230382907315146</v>
+        <v>0.06046530138823503</v>
       </c>
       <c r="M24">
-        <v>0.2128398295734257</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5326730033252289</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.9888605391276002</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.120908764178097</v>
+        <v>4.776540985905001</v>
       </c>
       <c r="C25">
-        <v>0.06894767475280617</v>
+        <v>1.077481313502574</v>
       </c>
       <c r="D25">
-        <v>0.1397005664945965</v>
+        <v>0.004881574100130237</v>
       </c>
       <c r="E25">
-        <v>0.01683582017993768</v>
+        <v>0.02057152741075691</v>
       </c>
       <c r="F25">
-        <v>8.958817429954422</v>
+        <v>2.649788456081694</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.004027025080255653</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.00478310264193027</v>
       </c>
       <c r="J25">
-        <v>0.2044605589244171</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>0.940409287931999</v>
+        <v>1.325223098576814</v>
       </c>
       <c r="L25">
-        <v>0.05866969208343775</v>
+        <v>0.05158210269850549</v>
       </c>
       <c r="M25">
-        <v>0.1835700888686844</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4437195475006916</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.045954131877373</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.051888338293111</v>
+        <v>3.632927818448252</v>
       </c>
       <c r="C2">
-        <v>0.8964300750320717</v>
+        <v>0.9540242552096458</v>
       </c>
       <c r="D2">
-        <v>0.003883359019154042</v>
+        <v>0.003689465484523424</v>
       </c>
       <c r="E2">
-        <v>0.01768904786500924</v>
+        <v>0.01884262023420602</v>
       </c>
       <c r="F2">
-        <v>2.39317696527489</v>
+        <v>2.016630887387691</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.008733946369066437</v>
+        <v>0.006696124732399333</v>
       </c>
       <c r="I2">
-        <v>0.008804235362433577</v>
+        <v>0.006063175260884179</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>1.225926867810237</v>
+        <v>0.967252251322364</v>
       </c>
       <c r="L2">
-        <v>0.04549053945672377</v>
+        <v>0.4024852771358951</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.3247440980910739</v>
       </c>
       <c r="N2">
-        <v>0.3777913475350374</v>
+        <v>0.04252640177783062</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1.095306190905642</v>
+        <v>0.4092418891987677</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.9647398479932399</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.549280506645687</v>
+        <v>3.189530203730044</v>
       </c>
       <c r="C3">
-        <v>0.7773999672154162</v>
+        <v>0.8267222744153173</v>
       </c>
       <c r="D3">
-        <v>0.003177606684696244</v>
+        <v>0.003163278789245716</v>
       </c>
       <c r="E3">
-        <v>0.01579386132754867</v>
+        <v>0.01704412985220305</v>
       </c>
       <c r="F3">
-        <v>2.211266085153184</v>
+        <v>1.879826058009002</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01316896592678007</v>
+        <v>0.0102339954090095</v>
       </c>
       <c r="I3">
-        <v>0.01328219786428297</v>
+        <v>0.009254313495242528</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>1.152508651431582</v>
+        <v>0.9218643520853576</v>
       </c>
       <c r="L3">
-        <v>0.04130003471312627</v>
+        <v>0.3932694581327212</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.301109110361061</v>
       </c>
       <c r="N3">
-        <v>0.3341430944105923</v>
+        <v>0.03892388296466542</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.126523408165532</v>
+        <v>0.3625983431873578</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.000531412760365</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.2409753944454</v>
+        <v>2.916688496793199</v>
       </c>
       <c r="C4">
-        <v>0.7051469152943639</v>
+        <v>0.7494381616278076</v>
       </c>
       <c r="D4">
-        <v>0.002764577032325022</v>
+        <v>0.002857613503903345</v>
       </c>
       <c r="E4">
-        <v>0.01465645150259676</v>
+        <v>0.01595775155023527</v>
       </c>
       <c r="F4">
-        <v>2.100603466146438</v>
+        <v>1.79639018867708</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0164458475518221</v>
+        <v>0.01286414533402971</v>
       </c>
       <c r="I4">
-        <v>0.01664125819356599</v>
+        <v>0.01169021024536976</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>1.107761290781433</v>
+        <v>0.8940681371471229</v>
       </c>
       <c r="L4">
-        <v>0.03874498308953545</v>
+        <v>0.3872101150133034</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2876188938318656</v>
       </c>
       <c r="N4">
-        <v>0.3074871960077843</v>
+        <v>0.0367199908707363</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.146004522055826</v>
+        <v>0.3341216531920708</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.02296521229527</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.11297500543543</v>
+        <v>2.803184721050968</v>
       </c>
       <c r="C5">
-        <v>0.6761940899380079</v>
+        <v>0.7184390551609283</v>
       </c>
       <c r="D5">
-        <v>0.002584822244363849</v>
+        <v>0.002734041764963724</v>
       </c>
       <c r="E5">
-        <v>0.01419554373373155</v>
+        <v>0.01551589890291644</v>
       </c>
       <c r="F5">
-        <v>2.053705841062367</v>
+        <v>1.760765540301307</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.01792434000268139</v>
+        <v>0.01405435850794939</v>
       </c>
       <c r="I5">
-        <v>0.01825236503160355</v>
+        <v>0.0129023023116801</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>1.088251394737625</v>
+        <v>0.8816482455633121</v>
       </c>
       <c r="L5">
-        <v>0.03768193443062895</v>
+        <v>0.3841705944549787</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2820144390230439</v>
       </c>
       <c r="N5">
-        <v>0.2967776529144146</v>
+        <v>0.03580442471145195</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.153397047740199</v>
+        <v>0.3226714646030473</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.031879332154624</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.088794678135173</v>
+        <v>2.781708406279733</v>
       </c>
       <c r="C6">
-        <v>0.6717728715351257</v>
+        <v>0.7136677313094424</v>
       </c>
       <c r="D6">
-        <v>0.002536177075040058</v>
+        <v>0.002710618159697198</v>
       </c>
       <c r="E6">
-        <v>0.01411610345576497</v>
+        <v>0.01543966585381235</v>
       </c>
       <c r="F6">
-        <v>2.043452812282069</v>
+        <v>1.752728416084508</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.01819091440652165</v>
+        <v>0.01426921477602688</v>
       </c>
       <c r="I6">
-        <v>0.01865418704630439</v>
+        <v>0.0132480793917118</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>1.08337262338874</v>
+        <v>0.8782399747042575</v>
       </c>
       <c r="L6">
-        <v>0.0374760274515431</v>
+        <v>0.383088111583028</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2806616841551239</v>
       </c>
       <c r="N6">
-        <v>0.2951512780191621</v>
+        <v>0.03563078510410556</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1.153873965883953</v>
+        <v>0.3209178488966131</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.032956053247624</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.231223032022626</v>
+        <v>2.907987408533586</v>
       </c>
       <c r="C7">
-        <v>0.7057840543881184</v>
+        <v>0.7500174982700969</v>
       </c>
       <c r="D7">
-        <v>0.002709701254886454</v>
+        <v>0.002847719012665451</v>
       </c>
       <c r="E7">
-        <v>0.0146414129122362</v>
+        <v>0.01594342890679945</v>
       </c>
       <c r="F7">
-        <v>2.093190394668909</v>
+        <v>1.790098282725339</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.01649916562691034</v>
+        <v>0.01290713763179896</v>
       </c>
       <c r="I7">
-        <v>0.01698529333179977</v>
+        <v>0.01206013757869684</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>1.103004089474595</v>
+        <v>0.8902279568405334</v>
       </c>
       <c r="L7">
-        <v>0.03864972751807638</v>
+        <v>0.3856316588195696</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2863279221523705</v>
       </c>
       <c r="N7">
-        <v>0.3077541016070455</v>
+        <v>0.0366487454922706</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1.144057705960222</v>
+        <v>0.3343662225549906</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.021994790823097</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.867732014446347</v>
+        <v>3.470563774372238</v>
       </c>
       <c r="C8">
-        <v>0.8565670895031019</v>
+        <v>0.9112608704490128</v>
       </c>
       <c r="D8">
-        <v>0.003564721435198592</v>
+        <v>0.00349494425340291</v>
       </c>
       <c r="E8">
-        <v>0.01701707010033798</v>
+        <v>0.01820667457841885</v>
       </c>
       <c r="F8">
-        <v>2.321203497965215</v>
+        <v>1.961645590663409</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.01017803185970739</v>
+        <v>0.007844718482650337</v>
       </c>
       <c r="I8">
-        <v>0.01059131334049024</v>
+        <v>0.007477007744626896</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>1.194564815415056</v>
+        <v>0.9467440920106611</v>
       </c>
       <c r="L8">
-        <v>0.04393159531479718</v>
+        <v>0.3974528654287255</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.3146871902849639</v>
       </c>
       <c r="N8">
-        <v>0.3632568937926095</v>
+        <v>0.04120362522833076</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1.103371436933603</v>
+        <v>0.3936555393224523</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.9756745409201795</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.135270271573859</v>
+        <v>4.583590778849384</v>
       </c>
       <c r="C9">
-        <v>1.158236719153592</v>
+        <v>1.233824585265893</v>
       </c>
       <c r="D9">
-        <v>0.005541270664361164</v>
+        <v>0.004948706725113716</v>
       </c>
       <c r="E9">
-        <v>0.02196844156824651</v>
+        <v>0.02285852204717831</v>
       </c>
       <c r="F9">
-        <v>2.790429325386427</v>
+        <v>2.314127458219801</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.002470235623809547</v>
+        <v>0.00178254990844029</v>
       </c>
       <c r="I9">
-        <v>0.002805132199497073</v>
+        <v>0.002032044862549043</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>1.385540633001497</v>
+        <v>1.065129227596678</v>
       </c>
       <c r="L9">
-        <v>0.05468665011977158</v>
+        <v>0.4200898179513075</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3810743065684363</v>
       </c>
       <c r="N9">
-        <v>0.4727903087658945</v>
+        <v>0.05039118917611329</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1.029837720326299</v>
+        <v>0.5107571825561479</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.8904022544810317</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.030607434409717</v>
+        <v>5.367385446718572</v>
       </c>
       <c r="C10">
-        <v>1.381763054341263</v>
+        <v>1.471915863991171</v>
       </c>
       <c r="D10">
-        <v>0.007253570304150969</v>
+        <v>0.006214064552284793</v>
       </c>
       <c r="E10">
-        <v>0.02571191162662301</v>
+        <v>0.02631058228691308</v>
       </c>
       <c r="F10">
-        <v>3.101064801890601</v>
+        <v>2.544448305404671</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0004235888405408339</v>
+        <v>0.0003145707586127422</v>
       </c>
       <c r="I10">
-        <v>0.000991130883987168</v>
+        <v>0.001092177420138896</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>1.506340311583955</v>
+        <v>1.136962219592135</v>
       </c>
       <c r="L10">
-        <v>0.06175887149007941</v>
+        <v>0.4289643981749194</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.429076318703423</v>
       </c>
       <c r="N10">
-        <v>0.5408658884907425</v>
+        <v>0.05672512097523619</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9689949461695093</v>
+        <v>0.5836062081017275</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.827342577528384</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.09103389639688</v>
+        <v>5.443504165576769</v>
       </c>
       <c r="C11">
-        <v>1.440460183316645</v>
+        <v>1.529428073081476</v>
       </c>
       <c r="D11">
-        <v>0.008883665908337335</v>
+        <v>0.007238338837386671</v>
       </c>
       <c r="E11">
-        <v>0.0277881527759134</v>
+        <v>0.02819397095734111</v>
       </c>
       <c r="F11">
-        <v>2.89703113965794</v>
+        <v>2.375334299795668</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01888988099750222</v>
+        <v>0.01881913443844496</v>
       </c>
       <c r="I11">
-        <v>0.00143313487197716</v>
+        <v>0.001745086759155967</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.381684318959955</v>
+        <v>1.040028361191254</v>
       </c>
       <c r="L11">
-        <v>0.06028796586412577</v>
+        <v>0.3866228223750312</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.4002871408224138</v>
       </c>
       <c r="N11">
-        <v>0.4568990525027345</v>
+        <v>0.059054783931062</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8814166519183466</v>
+        <v>0.4948322907173832</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7840330849851842</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.961693151385418</v>
+        <v>5.350220148274332</v>
       </c>
       <c r="C12">
-        <v>1.439691321747034</v>
+        <v>1.524514920688489</v>
       </c>
       <c r="D12">
-        <v>0.01003052196536913</v>
+        <v>0.00793348511967551</v>
       </c>
       <c r="E12">
-        <v>0.03105890760152796</v>
+        <v>0.03137611379303795</v>
       </c>
       <c r="F12">
-        <v>2.674340972793786</v>
+        <v>2.196444979269884</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05760343619635933</v>
+        <v>0.05751596547712268</v>
       </c>
       <c r="I12">
-        <v>0.001432546344511287</v>
+        <v>0.001748064051589893</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.26190373840376</v>
+        <v>0.951631772098942</v>
       </c>
       <c r="L12">
-        <v>0.06419838367326847</v>
+        <v>0.3528188491691253</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3683103225744517</v>
       </c>
       <c r="N12">
-        <v>0.3777873159467902</v>
+        <v>0.06603628996850119</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8360322577698813</v>
+        <v>0.4108664794647297</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.7720894032771781</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.666958059105184</v>
+        <v>5.110380119724255</v>
       </c>
       <c r="C13">
-        <v>1.394467214676922</v>
+        <v>1.47259243321264</v>
       </c>
       <c r="D13">
-        <v>0.01073795864443028</v>
+        <v>0.008386116425967316</v>
       </c>
       <c r="E13">
-        <v>0.03532118859277489</v>
+        <v>0.03562941892445259</v>
       </c>
       <c r="F13">
-        <v>2.41460769761926</v>
+        <v>1.990935791937559</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1135499137459135</v>
+        <v>0.113388162018893</v>
       </c>
       <c r="I13">
-        <v>0.001450125754925757</v>
+        <v>0.001677571304933068</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>1.132276334388123</v>
+        <v>0.8590242854291006</v>
       </c>
       <c r="L13">
-        <v>0.07217832849942951</v>
+        <v>0.32090660542503</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3303466212595794</v>
       </c>
       <c r="N13">
-        <v>0.2991787041269163</v>
+        <v>0.07665872857290523</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8165485531570877</v>
+        <v>0.3271023691823558</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.7807795038566461</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.385378395753094</v>
+        <v>4.875363667102874</v>
       </c>
       <c r="C14">
-        <v>1.343295371183501</v>
+        <v>1.415587838601482</v>
       </c>
       <c r="D14">
-        <v>0.01100842590811624</v>
+        <v>0.008595270534893729</v>
       </c>
       <c r="E14">
-        <v>0.03900853164295981</v>
+        <v>0.03934710025958665</v>
       </c>
       <c r="F14">
-        <v>2.216902309190914</v>
+        <v>1.835364032174098</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1631740652780849</v>
+        <v>0.1629167465802226</v>
       </c>
       <c r="I14">
-        <v>0.00165514544051959</v>
+        <v>0.001766081462184488</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>1.037416609075954</v>
+        <v>0.7922867898765062</v>
       </c>
       <c r="L14">
-        <v>0.0803970135406189</v>
+        <v>0.2991036582080966</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3014073808880795</v>
       </c>
       <c r="N14">
-        <v>0.2460235217413498</v>
+        <v>0.08645344812974187</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.815865743662882</v>
+        <v>0.2702688083937659</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.7969934733155384</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.279626141161032</v>
+        <v>4.78504371638445</v>
       </c>
       <c r="C15">
-        <v>1.322020469200311</v>
+        <v>1.392358707423625</v>
       </c>
       <c r="D15">
-        <v>0.01093948088416852</v>
+        <v>0.008566724249012836</v>
       </c>
       <c r="E15">
-        <v>0.03979686693665663</v>
+        <v>0.04015852060962466</v>
       </c>
       <c r="F15">
-        <v>2.158541783271858</v>
+        <v>1.789786188080981</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1758331393833572</v>
+        <v>0.1755277265500297</v>
       </c>
       <c r="I15">
-        <v>0.001883214172819336</v>
+        <v>0.001952448824646069</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>1.01054079110996</v>
+        <v>0.7737548673310357</v>
       </c>
       <c r="L15">
-        <v>0.0824171081646341</v>
+        <v>0.2935083192790557</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2927509972978513</v>
       </c>
       <c r="N15">
-        <v>0.2325597904165733</v>
+        <v>0.08879000704094508</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8193795646361526</v>
+        <v>0.2558290825228511</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.8040526707626121</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.956986373347092</v>
+        <v>4.4979883250233</v>
       </c>
       <c r="C16">
-        <v>1.235705793874786</v>
+        <v>1.301226470938559</v>
       </c>
       <c r="D16">
-        <v>0.009902986262876112</v>
+        <v>0.007864102879787893</v>
       </c>
       <c r="E16">
-        <v>0.03710490488377793</v>
+        <v>0.03760219195718761</v>
       </c>
       <c r="F16">
-        <v>2.079224661570777</v>
+        <v>1.732216961997352</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1639762083067353</v>
+        <v>0.1634166679268247</v>
       </c>
       <c r="I16">
-        <v>0.002698917896291064</v>
+        <v>0.002451578410218147</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.9850134322760908</v>
+        <v>0.7606131276254828</v>
       </c>
       <c r="L16">
-        <v>0.07748961715623537</v>
+        <v>0.2939310822332715</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2808246536369481</v>
       </c>
       <c r="N16">
-        <v>0.2222040101399188</v>
+        <v>0.08339511977807135</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8465269384353862</v>
+        <v>0.2446105273168513</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.8250591327159107</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.857949029437805</v>
+        <v>4.401867669669741</v>
       </c>
       <c r="C17">
-        <v>1.196923905725157</v>
+        <v>1.261845705045118</v>
       </c>
       <c r="D17">
-        <v>0.008984556001648158</v>
+        <v>0.007217794995126425</v>
       </c>
       <c r="E17">
-        <v>0.0329240852780508</v>
+        <v>0.03350580590835861</v>
       </c>
       <c r="F17">
-        <v>2.121768634714229</v>
+        <v>1.769697987934649</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.12677342967703</v>
+        <v>0.1260650443966256</v>
       </c>
       <c r="I17">
-        <v>0.003272368620578447</v>
+        <v>0.002843394237680208</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>1.014816227186706</v>
+        <v>0.7854497391748225</v>
       </c>
       <c r="L17">
-        <v>0.06881627131751955</v>
+        <v>0.3060371530222881</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2865451661468938</v>
       </c>
       <c r="N17">
-        <v>0.2413974995288726</v>
+        <v>0.07360727136523693</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8669781480981249</v>
+        <v>0.2650468107673447</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.8325267472013813</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.945241420517902</v>
+        <v>4.463883848839657</v>
       </c>
       <c r="C18">
-        <v>1.192959676734745</v>
+        <v>1.260841885900049</v>
       </c>
       <c r="D18">
-        <v>0.008126225411871246</v>
+        <v>0.006601561971768533</v>
       </c>
       <c r="E18">
-        <v>0.02806121528884642</v>
+        <v>0.0287023736432479</v>
       </c>
       <c r="F18">
-        <v>2.282028722695529</v>
+        <v>1.899879099719541</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07404073790949184</v>
+        <v>0.07331955604978191</v>
       </c>
       <c r="I18">
-        <v>0.003137780477649343</v>
+        <v>0.002639548150445314</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>1.101153210170907</v>
+        <v>0.8501310338301948</v>
       </c>
       <c r="L18">
-        <v>0.05897410977413742</v>
+        <v>0.3315535292080867</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.3092173304513963</v>
       </c>
       <c r="N18">
-        <v>0.2916575988018479</v>
+        <v>0.0618201251095023</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8907107601131665</v>
+        <v>0.3186324334329953</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.8337649249641181</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.162104991919648</v>
+        <v>4.635677046257911</v>
       </c>
       <c r="C19">
-        <v>1.21897849974755</v>
+        <v>1.292406798261482</v>
       </c>
       <c r="D19">
-        <v>0.007263490475850176</v>
+        <v>0.006067175322083784</v>
       </c>
       <c r="E19">
-        <v>0.02455876619574937</v>
+        <v>0.02524610020919837</v>
       </c>
       <c r="F19">
-        <v>2.521122121374432</v>
+        <v>2.090932357111427</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02835557944790423</v>
+        <v>0.02775315969245185</v>
       </c>
       <c r="I19">
-        <v>0.002968693138669209</v>
+        <v>0.002613210357562679</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>1.224132636303054</v>
+        <v>0.939692970624769</v>
       </c>
       <c r="L19">
-        <v>0.05353833000982</v>
+        <v>0.3651443660198836</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3428336433553696</v>
       </c>
       <c r="N19">
-        <v>0.3699548136580404</v>
+        <v>0.05369076014375374</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.923343852300885</v>
+        <v>0.401903010407608</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.8370158167158177</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.767297744932876</v>
+        <v>5.137164779413354</v>
       </c>
       <c r="C20">
-        <v>1.325581837155255</v>
+        <v>1.411783588422963</v>
       </c>
       <c r="D20">
-        <v>0.006621187211623081</v>
+        <v>0.005858635127523826</v>
       </c>
       <c r="E20">
-        <v>0.02466304594435142</v>
+        <v>0.0253465502533361</v>
       </c>
       <c r="F20">
-        <v>2.995822109067063</v>
+        <v>2.464238490155054</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0007296210622791399</v>
+        <v>0.0005063192939336325</v>
       </c>
       <c r="I20">
-        <v>0.002020966561357973</v>
+        <v>0.002102971298548972</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>1.459422616194601</v>
+        <v>1.106135669154703</v>
       </c>
       <c r="L20">
-        <v>0.05956574348600974</v>
+        <v>0.4224068845241717</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.4115083192642217</v>
       </c>
       <c r="N20">
-        <v>0.5236378565193718</v>
+        <v>0.05483296945686966</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9787895013608576</v>
+        <v>0.5650575793547006</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.8412306776924687</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.521906906511163</v>
+        <v>5.791605201959328</v>
       </c>
       <c r="C21">
-        <v>1.507222539004715</v>
+        <v>1.605994687156283</v>
       </c>
       <c r="D21">
-        <v>0.007905644676155177</v>
+        <v>0.006843735236084392</v>
       </c>
       <c r="E21">
-        <v>0.02790999490749468</v>
+        <v>0.02835235223793453</v>
       </c>
       <c r="F21">
-        <v>3.302879693556861</v>
+        <v>2.695126174566127</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.305704129350715E-05</v>
+        <v>3.429789167519459E-05</v>
       </c>
       <c r="I21">
-        <v>0.001742347249434673</v>
+        <v>0.002175428220430042</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>1.587873288148941</v>
+        <v>1.186968538067987</v>
       </c>
       <c r="L21">
-        <v>0.06688706074605744</v>
+        <v>0.4379119958154263</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.4599397537137619</v>
       </c>
       <c r="N21">
-        <v>0.5976598639878148</v>
+        <v>0.0607781506259415</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9464029089636625</v>
+        <v>0.644016264374244</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7986679947903816</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.009190906394963</v>
+        <v>6.214352734899023</v>
       </c>
       <c r="C22">
-        <v>1.623780000542354</v>
+        <v>1.730335323145937</v>
       </c>
       <c r="D22">
-        <v>0.008921070052299029</v>
+        <v>0.007555448691566102</v>
       </c>
       <c r="E22">
-        <v>0.03004907925773559</v>
+        <v>0.03030999957399816</v>
       </c>
       <c r="F22">
-        <v>3.495094930668643</v>
+        <v>2.83936763954901</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.0004520378262387048</v>
+        <v>0.0004717057979801709</v>
       </c>
       <c r="I22">
-        <v>0.002157447469704366</v>
+        <v>0.002533209980442486</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>1.668373559587565</v>
+        <v>1.237508982140753</v>
       </c>
       <c r="L22">
-        <v>0.07134652126256924</v>
+        <v>0.4466520167022097</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4918199952032012</v>
       </c>
       <c r="N22">
-        <v>0.6387991394760206</v>
+        <v>0.06451938830504922</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.924072617027683</v>
+        <v>0.6879719256282755</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.7709616836193725</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.75887633167099</v>
+        <v>5.997434846642477</v>
       </c>
       <c r="C23">
-        <v>1.560159431921647</v>
+        <v>1.662595773902922</v>
       </c>
       <c r="D23">
-        <v>0.008436824780304164</v>
+        <v>0.00717259156209904</v>
       </c>
       <c r="E23">
-        <v>0.02891200501539637</v>
+        <v>0.02927012050385591</v>
       </c>
       <c r="F23">
-        <v>3.400427684070223</v>
+        <v>2.76906635749765</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.0001440174207418821</v>
+        <v>0.0001794610058882817</v>
       </c>
       <c r="I23">
-        <v>0.001555498952203749</v>
+        <v>0.001920495616431594</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>1.630698281503697</v>
+        <v>1.214744747337576</v>
       </c>
       <c r="L23">
-        <v>0.06905937380698113</v>
+        <v>0.4435128462031628</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4763955158779325</v>
       </c>
       <c r="N23">
-        <v>0.6163031141771427</v>
+        <v>0.06258503042025776</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.9380811223057606</v>
+        <v>0.6639861255014807</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.7865189423320782</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.800367828271817</v>
+        <v>5.16411688220677</v>
       </c>
       <c r="C24">
-        <v>1.324898142447296</v>
+        <v>1.411648651666724</v>
       </c>
       <c r="D24">
-        <v>0.006623748210431657</v>
+        <v>0.005818467453936549</v>
       </c>
       <c r="E24">
-        <v>0.02475933819094656</v>
+        <v>0.02544968389930347</v>
       </c>
       <c r="F24">
-        <v>3.034282925151018</v>
+        <v>2.495520663068874</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0005643397237515835</v>
+        <v>0.0003533431750399885</v>
       </c>
       <c r="I24">
-        <v>0.001499772023522361</v>
+        <v>0.001493048748471892</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>1.481610968236708</v>
+        <v>1.122930058406169</v>
       </c>
       <c r="L24">
-        <v>0.06046530138823503</v>
+        <v>0.4287465299683717</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.417765142056659</v>
       </c>
       <c r="N24">
-        <v>0.5326730033252289</v>
+        <v>0.05532170629650235</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9888605391276002</v>
+        <v>0.5746800059957735</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.8454200718171272</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.776540985905001</v>
+        <v>4.26933485902174</v>
       </c>
       <c r="C25">
-        <v>1.077481313502574</v>
+        <v>1.147337448819485</v>
       </c>
       <c r="D25">
-        <v>0.004881574100130237</v>
+        <v>0.00452363439675052</v>
       </c>
       <c r="E25">
-        <v>0.02057152741075691</v>
+        <v>0.0215542798515117</v>
       </c>
       <c r="F25">
-        <v>2.649788456081694</v>
+        <v>2.207494326104154</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.004027025080255653</v>
+        <v>0.00298748700452367</v>
       </c>
       <c r="I25">
-        <v>0.00478310264193027</v>
+        <v>0.003587243565009501</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>1.325223098576814</v>
+        <v>1.026357444202453</v>
       </c>
       <c r="L25">
-        <v>0.05158210269850549</v>
+        <v>0.4118010990253609</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3597165881875171</v>
       </c>
       <c r="N25">
-        <v>0.4437195475006916</v>
+        <v>0.04777034118865853</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>1.045954131877373</v>
+        <v>0.4796090825477677</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.911472156892037</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
